--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9921479721546577</v>
+        <v>0.9921479721546556</v>
       </c>
       <c r="D3">
-        <v>1.012188214553256</v>
+        <v>1.012188214553255</v>
       </c>
       <c r="E3">
-        <v>0.9987078537312664</v>
+        <v>0.9987078537312645</v>
       </c>
       <c r="F3">
-        <v>1.010625656694361</v>
+        <v>1.010625656694358</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042663231526606</v>
+        <v>1.042663231526605</v>
       </c>
       <c r="J3">
-        <v>1.012855004443437</v>
+        <v>1.012855004443435</v>
       </c>
       <c r="K3">
-        <v>1.022667484411437</v>
+        <v>1.022667484411435</v>
       </c>
       <c r="L3">
-        <v>1.009357294552536</v>
+        <v>1.009357294552535</v>
       </c>
       <c r="M3">
-        <v>1.021124361820515</v>
+        <v>1.021124361820513</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971030873458433</v>
+        <v>0.9971030873458431</v>
       </c>
       <c r="D4">
         <v>1.015933744222409</v>
@@ -506,7 +506,7 @@
         <v>1.002857982288588</v>
       </c>
       <c r="F4">
-        <v>1.015525820869528</v>
+        <v>1.015525820869527</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9991487192821629</v>
+        <v>0.9991487192821604</v>
       </c>
       <c r="D5">
-        <v>1.017480349332899</v>
+        <v>1.017480349332898</v>
       </c>
       <c r="E5">
-        <v>1.004572606184788</v>
+        <v>1.004572606184786</v>
       </c>
       <c r="F5">
-        <v>1.017549993892453</v>
+        <v>1.017549993892452</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045079970964862</v>
+        <v>1.045079970964861</v>
       </c>
       <c r="J5">
-        <v>1.018118288825581</v>
+        <v>1.018118288825579</v>
       </c>
       <c r="K5">
-        <v>1.027152853649812</v>
+        <v>1.027152853649811</v>
       </c>
       <c r="L5">
-        <v>1.014392931972423</v>
+        <v>1.014392931972421</v>
       </c>
       <c r="M5">
-        <v>1.027221713163124</v>
+        <v>1.027221713163123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9994900570007498</v>
+        <v>0.9994900570007493</v>
       </c>
       <c r="D6">
         <v>1.017738434243105</v>
@@ -591,10 +591,10 @@
         <v>1.045197116284978</v>
       </c>
       <c r="J6">
-        <v>1.018374700172225</v>
+        <v>1.018374700172224</v>
       </c>
       <c r="K6">
-        <v>1.027371202553871</v>
+        <v>1.02737120255387</v>
       </c>
       <c r="L6">
         <v>1.014638322048919</v>
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971305654979788</v>
+        <v>0.9971305654979778</v>
       </c>
       <c r="D7">
-        <v>1.015954518012488</v>
+        <v>1.015954518012487</v>
       </c>
       <c r="E7">
         <v>1.002881009068725</v>
@@ -626,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044386004917449</v>
+        <v>1.044386004917448</v>
       </c>
       <c r="J7">
-        <v>1.016601839923176</v>
+        <v>1.016601839923175</v>
       </c>
       <c r="K7">
-        <v>1.025861187166318</v>
+        <v>1.025861187166317</v>
       </c>
       <c r="L7">
-        <v>1.012941796949013</v>
+        <v>1.012941796949012</v>
       </c>
       <c r="M7">
-        <v>1.025464335411257</v>
+        <v>1.025464335411256</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9869436259452272</v>
+        <v>0.9869436259452258</v>
       </c>
       <c r="D8">
-        <v>1.008255823831833</v>
+        <v>1.008255823831832</v>
       </c>
       <c r="E8">
-        <v>0.994353901407554</v>
+        <v>0.9943539014075531</v>
       </c>
       <c r="F8">
-        <v>1.005483508469378</v>
+        <v>1.005483508469377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040850403129909</v>
+        <v>1.040850403129908</v>
       </c>
       <c r="J8">
-        <v>1.008937466128999</v>
+        <v>1.008937466128998</v>
       </c>
       <c r="K8">
-        <v>1.019325114068522</v>
+        <v>1.019325114068521</v>
       </c>
       <c r="L8">
-        <v>1.005610899778036</v>
+        <v>1.005610899778035</v>
       </c>
       <c r="M8">
-        <v>1.016589710957732</v>
+        <v>1.01658971095773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.967594164519746</v>
+        <v>0.9675941645197447</v>
       </c>
       <c r="D9">
-        <v>0.9936553773592152</v>
+        <v>0.9936553773592139</v>
       </c>
       <c r="E9">
-        <v>0.9782117170058956</v>
+        <v>0.9782117170058943</v>
       </c>
       <c r="F9">
-        <v>0.9864049154725277</v>
+        <v>0.9864049154725264</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034008990983368</v>
+        <v>1.034008990983367</v>
       </c>
       <c r="J9">
-        <v>0.9943455445089083</v>
+        <v>0.9943455445089069</v>
       </c>
       <c r="K9">
-        <v>1.006852237260063</v>
+        <v>1.006852237260062</v>
       </c>
       <c r="L9">
-        <v>0.9916684705085012</v>
+        <v>0.9916684705084998</v>
       </c>
       <c r="M9">
-        <v>0.9997224829723281</v>
+        <v>0.9997224829723267</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9535583469370845</v>
+        <v>0.9535583469370863</v>
       </c>
       <c r="D10">
-        <v>0.9830912326147869</v>
+        <v>0.9830912326147887</v>
       </c>
       <c r="E10">
-        <v>0.9665492977529686</v>
+        <v>0.9665492977529698</v>
       </c>
       <c r="F10">
-        <v>0.9726042987408402</v>
+        <v>0.9726042987408413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028966251398812</v>
+        <v>1.028966251398813</v>
       </c>
       <c r="J10">
-        <v>0.9837439279064188</v>
+        <v>0.9837439279064207</v>
       </c>
       <c r="K10">
-        <v>0.9977726419466854</v>
+        <v>0.9977726419466869</v>
       </c>
       <c r="L10">
-        <v>0.9815499729677005</v>
+        <v>0.9815499729677017</v>
       </c>
       <c r="M10">
-        <v>0.9874864581837479</v>
+        <v>0.9874864581837489</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9471583890791554</v>
+        <v>0.9471583890791549</v>
       </c>
       <c r="D11">
         <v>0.9782836000728492</v>
       </c>
       <c r="E11">
-        <v>0.9612452455759729</v>
+        <v>0.9612452455759725</v>
       </c>
       <c r="F11">
-        <v>0.9663224143616568</v>
+        <v>0.9663224143616569</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,13 +781,13 @@
         <v>1.026649382355618</v>
       </c>
       <c r="J11">
-        <v>0.9789075410889765</v>
+        <v>0.9789075410889763</v>
       </c>
       <c r="K11">
-        <v>0.9936270146793369</v>
+        <v>0.9936270146793366</v>
       </c>
       <c r="L11">
-        <v>0.9769369953419805</v>
+        <v>0.9769369953419802</v>
       </c>
       <c r="M11">
         <v>0.9819086694746458</v>
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447273785489158</v>
+        <v>0.9447273785489178</v>
       </c>
       <c r="D12">
-        <v>0.9764591249598558</v>
+        <v>0.9764591249598578</v>
       </c>
       <c r="E12">
-        <v>0.9592328234827161</v>
+        <v>0.9592328234827184</v>
       </c>
       <c r="F12">
-        <v>0.9639380430352633</v>
+        <v>0.9639380430352651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02576684195877</v>
+        <v>1.025766841958771</v>
       </c>
       <c r="J12">
-        <v>0.9770702646107737</v>
+        <v>0.9770702646107758</v>
       </c>
       <c r="K12">
-        <v>0.9920516684662525</v>
+        <v>0.9920516684662544</v>
       </c>
       <c r="L12">
-        <v>0.975185076083953</v>
+        <v>0.9751850760839554</v>
       </c>
       <c r="M12">
-        <v>0.9797903550135241</v>
+        <v>0.9797903550135257</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9452513674015713</v>
+        <v>0.9452513674015701</v>
       </c>
       <c r="D13">
-        <v>0.9768522974713766</v>
+        <v>0.9768522974713754</v>
       </c>
       <c r="E13">
-        <v>0.959666479602226</v>
+        <v>0.9596664796022247</v>
       </c>
       <c r="F13">
-        <v>0.9644518955416649</v>
+        <v>0.9644518955416639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02595717731677</v>
+        <v>1.025957177316769</v>
       </c>
       <c r="J13">
-        <v>0.9774662833247081</v>
+        <v>0.977466283324707</v>
       </c>
       <c r="K13">
-        <v>0.9923912496419457</v>
+        <v>0.9923912496419447</v>
       </c>
       <c r="L13">
-        <v>0.9755626737591556</v>
+        <v>0.9755626737591545</v>
       </c>
       <c r="M13">
-        <v>0.980246923332194</v>
+        <v>0.980246923332193</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9469585720521518</v>
+        <v>0.9469585720521523</v>
       </c>
       <c r="D14">
         <v>0.9781336011355301</v>
       </c>
       <c r="E14">
-        <v>0.9610797860675082</v>
+        <v>0.9610797860675087</v>
       </c>
       <c r="F14">
         <v>0.9661263935916855</v>
@@ -895,16 +895,16 @@
         <v>1.026576891264713</v>
       </c>
       <c r="J14">
-        <v>0.9787565287812481</v>
+        <v>0.9787565287812485</v>
       </c>
       <c r="K14">
-        <v>0.9934975407156743</v>
+        <v>0.9934975407156742</v>
       </c>
       <c r="L14">
-        <v>0.9767929887667474</v>
+        <v>0.9767929887667481</v>
       </c>
       <c r="M14">
-        <v>0.9817345454165859</v>
+        <v>0.981734545416586</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9480031363510756</v>
+        <v>0.9480031363510755</v>
       </c>
       <c r="D15">
-        <v>0.9789178067573082</v>
+        <v>0.9789178067573083</v>
       </c>
       <c r="E15">
-        <v>0.9619448382312973</v>
+        <v>0.9619448382312972</v>
       </c>
       <c r="F15">
-        <v>0.9671511861943344</v>
+        <v>0.9671511861943347</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026955746172577</v>
       </c>
       <c r="J15">
-        <v>0.9795459548586015</v>
+        <v>0.9795459548586014</v>
       </c>
       <c r="K15">
         <v>0.9941743546734731</v>
       </c>
       <c r="L15">
-        <v>0.9775458119345614</v>
+        <v>0.9775458119345611</v>
       </c>
       <c r="M15">
-        <v>0.9826448142216094</v>
+        <v>0.9826448142216098</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.953975861203782</v>
+        <v>0.9539758612037826</v>
       </c>
       <c r="D16">
-        <v>0.9834050844191496</v>
+        <v>0.9834050844191504</v>
       </c>
       <c r="E16">
-        <v>0.9668956213720095</v>
+        <v>0.9668956213720105</v>
       </c>
       <c r="F16">
-        <v>0.9730143466807952</v>
+        <v>0.9730143466807959</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029117047814254</v>
       </c>
       <c r="J16">
-        <v>0.9840594046611258</v>
+        <v>0.9840594046611267</v>
       </c>
       <c r="K16">
-        <v>0.9980429914659236</v>
+        <v>0.9980429914659243</v>
       </c>
       <c r="L16">
-        <v>0.9818509416990288</v>
+        <v>0.9818509416990298</v>
       </c>
       <c r="M16">
-        <v>0.9878503814208029</v>
+        <v>0.9878503814208037</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,31 +991,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9576325627015971</v>
+        <v>0.9576325627015972</v>
       </c>
       <c r="D17">
-        <v>0.9861549622794957</v>
+        <v>0.9861549622794961</v>
       </c>
       <c r="E17">
-        <v>0.9699303821932929</v>
+        <v>0.969930382193293</v>
       </c>
       <c r="F17">
-        <v>0.9766068897838056</v>
+        <v>0.9766068897838058</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030435810931927</v>
+        <v>1.030435810931928</v>
       </c>
       <c r="J17">
-        <v>0.9868221896908953</v>
+        <v>0.9868221896908952</v>
       </c>
       <c r="K17">
-        <v>1.000410179509223</v>
+        <v>1.000410179509224</v>
       </c>
       <c r="L17">
-        <v>0.9844870149744704</v>
+        <v>0.9844870149744706</v>
       </c>
       <c r="M17">
         <v>0.9910379059557191</v>
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9597347540425547</v>
+        <v>0.9597347540425564</v>
       </c>
       <c r="D18">
-        <v>0.9877366846706404</v>
+        <v>0.9877366846706421</v>
       </c>
       <c r="E18">
-        <v>0.9716762909887285</v>
+        <v>0.97167629098873</v>
       </c>
       <c r="F18">
-        <v>0.9786731983542338</v>
+        <v>0.9786731983542355</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031192302751069</v>
+        <v>1.03119230275107</v>
       </c>
       <c r="J18">
-        <v>0.988410249928259</v>
+        <v>0.9884102499282609</v>
       </c>
       <c r="K18">
-        <v>1.001770510561623</v>
+        <v>1.001770510561625</v>
       </c>
       <c r="L18">
-        <v>0.9860025200709233</v>
+        <v>0.9860025200709249</v>
       </c>
       <c r="M18">
-        <v>0.9928705027087089</v>
+        <v>0.9928705027087105</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9604464889801065</v>
+        <v>0.9604464889801074</v>
       </c>
       <c r="D19">
-        <v>0.9882723420511305</v>
+        <v>0.9882723420511311</v>
       </c>
       <c r="E19">
-        <v>0.9722676074118631</v>
+        <v>0.9722676074118639</v>
       </c>
       <c r="F19">
-        <v>0.9793729499342796</v>
+        <v>0.979372949934281</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03144814305055</v>
       </c>
       <c r="J19">
-        <v>0.9889478729662869</v>
+        <v>0.9889478729662878</v>
       </c>
       <c r="K19">
         <v>1.002230979010172</v>
       </c>
       <c r="L19">
-        <v>0.9865156266844914</v>
+        <v>0.9865156266844921</v>
       </c>
       <c r="M19">
-        <v>0.9934909788412474</v>
+        <v>0.9934909788412485</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9572434448174028</v>
+        <v>0.9572434448174043</v>
       </c>
       <c r="D20">
-        <v>0.9858622509518769</v>
+        <v>0.9858622509518782</v>
       </c>
       <c r="E20">
-        <v>0.9696073133572222</v>
+        <v>0.9696073133572235</v>
       </c>
       <c r="F20">
-        <v>0.9762244939455547</v>
+        <v>0.9762244939455561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030295648825121</v>
+        <v>1.030295648825122</v>
       </c>
       <c r="J20">
-        <v>0.9865282182947952</v>
+        <v>0.9865282182947966</v>
       </c>
       <c r="K20">
-        <v>1.000158336033693</v>
+        <v>1.000158336033694</v>
       </c>
       <c r="L20">
-        <v>0.9842064969380531</v>
+        <v>0.9842064969380543</v>
       </c>
       <c r="M20">
-        <v>0.9906986996868175</v>
+        <v>0.9906986996868189</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9464573746488535</v>
+        <v>0.9464573746488523</v>
       </c>
       <c r="D21">
-        <v>0.977757389809225</v>
+        <v>0.9777573898092233</v>
       </c>
       <c r="E21">
-        <v>0.96066480504587</v>
+        <v>0.9606648050458687</v>
       </c>
       <c r="F21">
-        <v>0.9656347476080074</v>
+        <v>0.965634747608006</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026395023841631</v>
+        <v>1.02639502384163</v>
       </c>
       <c r="J21">
-        <v>0.9783777449927704</v>
+        <v>0.978377744992769</v>
       </c>
       <c r="K21">
-        <v>0.993172774002115</v>
+        <v>0.9931727740021136</v>
       </c>
       <c r="L21">
-        <v>0.9764317853911416</v>
+        <v>0.9764317853911404</v>
       </c>
       <c r="M21">
-        <v>0.9812978002143422</v>
+        <v>0.9812978002143407</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393612805570032</v>
+        <v>0.9393612805570025</v>
       </c>
       <c r="D22">
-        <v>0.9724353537425315</v>
+        <v>0.972435353742531</v>
       </c>
       <c r="E22">
-        <v>0.9547952806896183</v>
+        <v>0.9547952806896177</v>
       </c>
       <c r="F22">
-        <v>0.9586784028454559</v>
+        <v>0.9586784028454552</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023814358704696</v>
       </c>
       <c r="J22">
-        <v>0.9730146092784522</v>
+        <v>0.9730146092784516</v>
       </c>
       <c r="K22">
-        <v>0.9885733889798406</v>
+        <v>0.98857338897984</v>
       </c>
       <c r="L22">
-        <v>0.9713187837867721</v>
+        <v>0.9713187837867715</v>
       </c>
       <c r="M22">
-        <v>0.9751154321691292</v>
+        <v>0.9751154321691287</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.94315487875448</v>
+        <v>0.9431548787544791</v>
       </c>
       <c r="D23">
-        <v>0.9752794803087538</v>
+        <v>0.9752794803087531</v>
       </c>
       <c r="E23">
-        <v>0.9579317740639216</v>
+        <v>0.9579317740639209</v>
       </c>
       <c r="F23">
-        <v>0.9623962387847208</v>
+        <v>0.9623962387847198</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025195290776978</v>
+        <v>1.025195290776977</v>
       </c>
       <c r="J23">
-        <v>0.975881792350028</v>
+        <v>0.9758817923500273</v>
       </c>
       <c r="K23">
-        <v>0.9910325026189105</v>
+        <v>0.9910325026189098</v>
       </c>
       <c r="L23">
-        <v>0.9740519606582777</v>
+        <v>0.9740519606582771</v>
       </c>
       <c r="M23">
-        <v>0.9784202581115305</v>
+        <v>0.9784202581115298</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9574193649195101</v>
+        <v>0.9574193649195086</v>
       </c>
       <c r="D24">
-        <v>0.9859945830435439</v>
+        <v>0.985994583043543</v>
       </c>
       <c r="E24">
-        <v>0.9697533687911072</v>
+        <v>0.9697533687911061</v>
       </c>
       <c r="F24">
-        <v>0.9763973719115135</v>
+        <v>0.9763973719115127</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030359021215821</v>
       </c>
       <c r="J24">
-        <v>0.9866611234190762</v>
+        <v>0.986661123419075</v>
       </c>
       <c r="K24">
-        <v>1.000272196087451</v>
+        <v>1.00027219608745</v>
       </c>
       <c r="L24">
-        <v>0.9843333189024343</v>
+        <v>0.9843333189024331</v>
       </c>
       <c r="M24">
-        <v>0.990852054369838</v>
+        <v>0.990852054369837</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9727808119693672</v>
+        <v>0.9727808119693661</v>
       </c>
       <c r="D25">
-        <v>0.9975653729625892</v>
+        <v>0.9975653729625884</v>
       </c>
       <c r="E25">
-        <v>0.9825314582564929</v>
+        <v>0.9825314582564921</v>
       </c>
       <c r="F25">
-        <v>0.9915128746037405</v>
+        <v>0.9915128746037398</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.035856832545798</v>
       </c>
       <c r="J25">
-        <v>0.9982602633900518</v>
+        <v>0.9982602633900513</v>
       </c>
       <c r="K25">
         <v>1.010201601317082</v>
       </c>
       <c r="L25">
-        <v>0.9954071421417661</v>
+        <v>0.9954071421417653</v>
       </c>
       <c r="M25">
-        <v>1.004244386714046</v>
+        <v>1.004244386714045</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9921479721546556</v>
+        <v>0.9921479721546577</v>
       </c>
       <c r="D3">
-        <v>1.012188214553255</v>
+        <v>1.012188214553256</v>
       </c>
       <c r="E3">
-        <v>0.9987078537312645</v>
+        <v>0.9987078537312664</v>
       </c>
       <c r="F3">
-        <v>1.010625656694358</v>
+        <v>1.010625656694361</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042663231526605</v>
+        <v>1.042663231526606</v>
       </c>
       <c r="J3">
-        <v>1.012855004443435</v>
+        <v>1.012855004443437</v>
       </c>
       <c r="K3">
-        <v>1.022667484411435</v>
+        <v>1.022667484411437</v>
       </c>
       <c r="L3">
-        <v>1.009357294552535</v>
+        <v>1.009357294552536</v>
       </c>
       <c r="M3">
-        <v>1.021124361820513</v>
+        <v>1.021124361820515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971030873458431</v>
+        <v>0.9971030873458433</v>
       </c>
       <c r="D4">
         <v>1.015933744222409</v>
@@ -506,7 +506,7 @@
         <v>1.002857982288588</v>
       </c>
       <c r="F4">
-        <v>1.015525820869527</v>
+        <v>1.015525820869528</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9991487192821604</v>
+        <v>0.9991487192821629</v>
       </c>
       <c r="D5">
-        <v>1.017480349332898</v>
+        <v>1.017480349332899</v>
       </c>
       <c r="E5">
-        <v>1.004572606184786</v>
+        <v>1.004572606184788</v>
       </c>
       <c r="F5">
-        <v>1.017549993892452</v>
+        <v>1.017549993892453</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045079970964861</v>
+        <v>1.045079970964862</v>
       </c>
       <c r="J5">
-        <v>1.018118288825579</v>
+        <v>1.018118288825581</v>
       </c>
       <c r="K5">
-        <v>1.027152853649811</v>
+        <v>1.027152853649812</v>
       </c>
       <c r="L5">
-        <v>1.014392931972421</v>
+        <v>1.014392931972423</v>
       </c>
       <c r="M5">
-        <v>1.027221713163123</v>
+        <v>1.027221713163124</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9994900570007493</v>
+        <v>0.9994900570007498</v>
       </c>
       <c r="D6">
         <v>1.017738434243105</v>
@@ -591,10 +591,10 @@
         <v>1.045197116284978</v>
       </c>
       <c r="J6">
-        <v>1.018374700172224</v>
+        <v>1.018374700172225</v>
       </c>
       <c r="K6">
-        <v>1.02737120255387</v>
+        <v>1.027371202553871</v>
       </c>
       <c r="L6">
         <v>1.014638322048919</v>
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971305654979778</v>
+        <v>0.9971305654979788</v>
       </c>
       <c r="D7">
-        <v>1.015954518012487</v>
+        <v>1.015954518012488</v>
       </c>
       <c r="E7">
         <v>1.002881009068725</v>
@@ -626,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044386004917448</v>
+        <v>1.044386004917449</v>
       </c>
       <c r="J7">
-        <v>1.016601839923175</v>
+        <v>1.016601839923176</v>
       </c>
       <c r="K7">
-        <v>1.025861187166317</v>
+        <v>1.025861187166318</v>
       </c>
       <c r="L7">
-        <v>1.012941796949012</v>
+        <v>1.012941796949013</v>
       </c>
       <c r="M7">
-        <v>1.025464335411256</v>
+        <v>1.025464335411257</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9869436259452258</v>
+        <v>0.9869436259452272</v>
       </c>
       <c r="D8">
-        <v>1.008255823831832</v>
+        <v>1.008255823831833</v>
       </c>
       <c r="E8">
-        <v>0.9943539014075531</v>
+        <v>0.994353901407554</v>
       </c>
       <c r="F8">
-        <v>1.005483508469377</v>
+        <v>1.005483508469378</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040850403129908</v>
+        <v>1.040850403129909</v>
       </c>
       <c r="J8">
-        <v>1.008937466128998</v>
+        <v>1.008937466128999</v>
       </c>
       <c r="K8">
-        <v>1.019325114068521</v>
+        <v>1.019325114068522</v>
       </c>
       <c r="L8">
-        <v>1.005610899778035</v>
+        <v>1.005610899778036</v>
       </c>
       <c r="M8">
-        <v>1.01658971095773</v>
+        <v>1.016589710957732</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9675941645197447</v>
+        <v>0.967594164519746</v>
       </c>
       <c r="D9">
-        <v>0.9936553773592139</v>
+        <v>0.9936553773592152</v>
       </c>
       <c r="E9">
-        <v>0.9782117170058943</v>
+        <v>0.9782117170058956</v>
       </c>
       <c r="F9">
-        <v>0.9864049154725264</v>
+        <v>0.9864049154725277</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034008990983367</v>
+        <v>1.034008990983368</v>
       </c>
       <c r="J9">
-        <v>0.9943455445089069</v>
+        <v>0.9943455445089083</v>
       </c>
       <c r="K9">
-        <v>1.006852237260062</v>
+        <v>1.006852237260063</v>
       </c>
       <c r="L9">
-        <v>0.9916684705084998</v>
+        <v>0.9916684705085012</v>
       </c>
       <c r="M9">
-        <v>0.9997224829723267</v>
+        <v>0.9997224829723281</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9535583469370863</v>
+        <v>0.9535583469370845</v>
       </c>
       <c r="D10">
-        <v>0.9830912326147887</v>
+        <v>0.9830912326147869</v>
       </c>
       <c r="E10">
-        <v>0.9665492977529698</v>
+        <v>0.9665492977529686</v>
       </c>
       <c r="F10">
-        <v>0.9726042987408413</v>
+        <v>0.9726042987408402</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028966251398813</v>
+        <v>1.028966251398812</v>
       </c>
       <c r="J10">
-        <v>0.9837439279064207</v>
+        <v>0.9837439279064188</v>
       </c>
       <c r="K10">
-        <v>0.9977726419466869</v>
+        <v>0.9977726419466854</v>
       </c>
       <c r="L10">
-        <v>0.9815499729677017</v>
+        <v>0.9815499729677005</v>
       </c>
       <c r="M10">
-        <v>0.9874864581837489</v>
+        <v>0.9874864581837479</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9471583890791549</v>
+        <v>0.9471583890791554</v>
       </c>
       <c r="D11">
         <v>0.9782836000728492</v>
       </c>
       <c r="E11">
-        <v>0.9612452455759725</v>
+        <v>0.9612452455759729</v>
       </c>
       <c r="F11">
-        <v>0.9663224143616569</v>
+        <v>0.9663224143616568</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,13 +781,13 @@
         <v>1.026649382355618</v>
       </c>
       <c r="J11">
-        <v>0.9789075410889763</v>
+        <v>0.9789075410889765</v>
       </c>
       <c r="K11">
-        <v>0.9936270146793366</v>
+        <v>0.9936270146793369</v>
       </c>
       <c r="L11">
-        <v>0.9769369953419802</v>
+        <v>0.9769369953419805</v>
       </c>
       <c r="M11">
         <v>0.9819086694746458</v>
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447273785489178</v>
+        <v>0.9447273785489158</v>
       </c>
       <c r="D12">
-        <v>0.9764591249598578</v>
+        <v>0.9764591249598558</v>
       </c>
       <c r="E12">
-        <v>0.9592328234827184</v>
+        <v>0.9592328234827161</v>
       </c>
       <c r="F12">
-        <v>0.9639380430352651</v>
+        <v>0.9639380430352633</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025766841958771</v>
+        <v>1.02576684195877</v>
       </c>
       <c r="J12">
-        <v>0.9770702646107758</v>
+        <v>0.9770702646107737</v>
       </c>
       <c r="K12">
-        <v>0.9920516684662544</v>
+        <v>0.9920516684662525</v>
       </c>
       <c r="L12">
-        <v>0.9751850760839554</v>
+        <v>0.975185076083953</v>
       </c>
       <c r="M12">
-        <v>0.9797903550135257</v>
+        <v>0.9797903550135241</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9452513674015701</v>
+        <v>0.9452513674015713</v>
       </c>
       <c r="D13">
-        <v>0.9768522974713754</v>
+        <v>0.9768522974713766</v>
       </c>
       <c r="E13">
-        <v>0.9596664796022247</v>
+        <v>0.959666479602226</v>
       </c>
       <c r="F13">
-        <v>0.9644518955416639</v>
+        <v>0.9644518955416649</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025957177316769</v>
+        <v>1.02595717731677</v>
       </c>
       <c r="J13">
-        <v>0.977466283324707</v>
+        <v>0.9774662833247081</v>
       </c>
       <c r="K13">
-        <v>0.9923912496419447</v>
+        <v>0.9923912496419457</v>
       </c>
       <c r="L13">
-        <v>0.9755626737591545</v>
+        <v>0.9755626737591556</v>
       </c>
       <c r="M13">
-        <v>0.980246923332193</v>
+        <v>0.980246923332194</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9469585720521523</v>
+        <v>0.9469585720521518</v>
       </c>
       <c r="D14">
         <v>0.9781336011355301</v>
       </c>
       <c r="E14">
-        <v>0.9610797860675087</v>
+        <v>0.9610797860675082</v>
       </c>
       <c r="F14">
         <v>0.9661263935916855</v>
@@ -895,16 +895,16 @@
         <v>1.026576891264713</v>
       </c>
       <c r="J14">
-        <v>0.9787565287812485</v>
+        <v>0.9787565287812481</v>
       </c>
       <c r="K14">
-        <v>0.9934975407156742</v>
+        <v>0.9934975407156743</v>
       </c>
       <c r="L14">
-        <v>0.9767929887667481</v>
+        <v>0.9767929887667474</v>
       </c>
       <c r="M14">
-        <v>0.981734545416586</v>
+        <v>0.9817345454165859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9480031363510755</v>
+        <v>0.9480031363510756</v>
       </c>
       <c r="D15">
-        <v>0.9789178067573083</v>
+        <v>0.9789178067573082</v>
       </c>
       <c r="E15">
-        <v>0.9619448382312972</v>
+        <v>0.9619448382312973</v>
       </c>
       <c r="F15">
-        <v>0.9671511861943347</v>
+        <v>0.9671511861943344</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026955746172577</v>
       </c>
       <c r="J15">
-        <v>0.9795459548586014</v>
+        <v>0.9795459548586015</v>
       </c>
       <c r="K15">
         <v>0.9941743546734731</v>
       </c>
       <c r="L15">
-        <v>0.9775458119345611</v>
+        <v>0.9775458119345614</v>
       </c>
       <c r="M15">
-        <v>0.9826448142216098</v>
+        <v>0.9826448142216094</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9539758612037826</v>
+        <v>0.953975861203782</v>
       </c>
       <c r="D16">
-        <v>0.9834050844191504</v>
+        <v>0.9834050844191496</v>
       </c>
       <c r="E16">
-        <v>0.9668956213720105</v>
+        <v>0.9668956213720095</v>
       </c>
       <c r="F16">
-        <v>0.9730143466807959</v>
+        <v>0.9730143466807952</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029117047814254</v>
       </c>
       <c r="J16">
-        <v>0.9840594046611267</v>
+        <v>0.9840594046611258</v>
       </c>
       <c r="K16">
-        <v>0.9980429914659243</v>
+        <v>0.9980429914659236</v>
       </c>
       <c r="L16">
-        <v>0.9818509416990298</v>
+        <v>0.9818509416990288</v>
       </c>
       <c r="M16">
-        <v>0.9878503814208037</v>
+        <v>0.9878503814208029</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,31 +991,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9576325627015972</v>
+        <v>0.9576325627015971</v>
       </c>
       <c r="D17">
-        <v>0.9861549622794961</v>
+        <v>0.9861549622794957</v>
       </c>
       <c r="E17">
-        <v>0.969930382193293</v>
+        <v>0.9699303821932929</v>
       </c>
       <c r="F17">
-        <v>0.9766068897838058</v>
+        <v>0.9766068897838056</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030435810931928</v>
+        <v>1.030435810931927</v>
       </c>
       <c r="J17">
-        <v>0.9868221896908952</v>
+        <v>0.9868221896908953</v>
       </c>
       <c r="K17">
-        <v>1.000410179509224</v>
+        <v>1.000410179509223</v>
       </c>
       <c r="L17">
-        <v>0.9844870149744706</v>
+        <v>0.9844870149744704</v>
       </c>
       <c r="M17">
         <v>0.9910379059557191</v>
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9597347540425564</v>
+        <v>0.9597347540425547</v>
       </c>
       <c r="D18">
-        <v>0.9877366846706421</v>
+        <v>0.9877366846706404</v>
       </c>
       <c r="E18">
-        <v>0.97167629098873</v>
+        <v>0.9716762909887285</v>
       </c>
       <c r="F18">
-        <v>0.9786731983542355</v>
+        <v>0.9786731983542338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03119230275107</v>
+        <v>1.031192302751069</v>
       </c>
       <c r="J18">
-        <v>0.9884102499282609</v>
+        <v>0.988410249928259</v>
       </c>
       <c r="K18">
-        <v>1.001770510561625</v>
+        <v>1.001770510561623</v>
       </c>
       <c r="L18">
-        <v>0.9860025200709249</v>
+        <v>0.9860025200709233</v>
       </c>
       <c r="M18">
-        <v>0.9928705027087105</v>
+        <v>0.9928705027087089</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9604464889801074</v>
+        <v>0.9604464889801065</v>
       </c>
       <c r="D19">
-        <v>0.9882723420511311</v>
+        <v>0.9882723420511305</v>
       </c>
       <c r="E19">
-        <v>0.9722676074118639</v>
+        <v>0.9722676074118631</v>
       </c>
       <c r="F19">
-        <v>0.979372949934281</v>
+        <v>0.9793729499342796</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03144814305055</v>
       </c>
       <c r="J19">
-        <v>0.9889478729662878</v>
+        <v>0.9889478729662869</v>
       </c>
       <c r="K19">
         <v>1.002230979010172</v>
       </c>
       <c r="L19">
-        <v>0.9865156266844921</v>
+        <v>0.9865156266844914</v>
       </c>
       <c r="M19">
-        <v>0.9934909788412485</v>
+        <v>0.9934909788412474</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9572434448174043</v>
+        <v>0.9572434448174028</v>
       </c>
       <c r="D20">
-        <v>0.9858622509518782</v>
+        <v>0.9858622509518769</v>
       </c>
       <c r="E20">
-        <v>0.9696073133572235</v>
+        <v>0.9696073133572222</v>
       </c>
       <c r="F20">
-        <v>0.9762244939455561</v>
+        <v>0.9762244939455547</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030295648825122</v>
+        <v>1.030295648825121</v>
       </c>
       <c r="J20">
-        <v>0.9865282182947966</v>
+        <v>0.9865282182947952</v>
       </c>
       <c r="K20">
-        <v>1.000158336033694</v>
+        <v>1.000158336033693</v>
       </c>
       <c r="L20">
-        <v>0.9842064969380543</v>
+        <v>0.9842064969380531</v>
       </c>
       <c r="M20">
-        <v>0.9906986996868189</v>
+        <v>0.9906986996868175</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9464573746488523</v>
+        <v>0.9464573746488535</v>
       </c>
       <c r="D21">
-        <v>0.9777573898092233</v>
+        <v>0.977757389809225</v>
       </c>
       <c r="E21">
-        <v>0.9606648050458687</v>
+        <v>0.96066480504587</v>
       </c>
       <c r="F21">
-        <v>0.965634747608006</v>
+        <v>0.9656347476080074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02639502384163</v>
+        <v>1.026395023841631</v>
       </c>
       <c r="J21">
-        <v>0.978377744992769</v>
+        <v>0.9783777449927704</v>
       </c>
       <c r="K21">
-        <v>0.9931727740021136</v>
+        <v>0.993172774002115</v>
       </c>
       <c r="L21">
-        <v>0.9764317853911404</v>
+        <v>0.9764317853911416</v>
       </c>
       <c r="M21">
-        <v>0.9812978002143407</v>
+        <v>0.9812978002143422</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393612805570025</v>
+        <v>0.9393612805570032</v>
       </c>
       <c r="D22">
-        <v>0.972435353742531</v>
+        <v>0.9724353537425315</v>
       </c>
       <c r="E22">
-        <v>0.9547952806896177</v>
+        <v>0.9547952806896183</v>
       </c>
       <c r="F22">
-        <v>0.9586784028454552</v>
+        <v>0.9586784028454559</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023814358704696</v>
       </c>
       <c r="J22">
-        <v>0.9730146092784516</v>
+        <v>0.9730146092784522</v>
       </c>
       <c r="K22">
-        <v>0.98857338897984</v>
+        <v>0.9885733889798406</v>
       </c>
       <c r="L22">
-        <v>0.9713187837867715</v>
+        <v>0.9713187837867721</v>
       </c>
       <c r="M22">
-        <v>0.9751154321691287</v>
+        <v>0.9751154321691292</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431548787544791</v>
+        <v>0.94315487875448</v>
       </c>
       <c r="D23">
-        <v>0.9752794803087531</v>
+        <v>0.9752794803087538</v>
       </c>
       <c r="E23">
-        <v>0.9579317740639209</v>
+        <v>0.9579317740639216</v>
       </c>
       <c r="F23">
-        <v>0.9623962387847198</v>
+        <v>0.9623962387847208</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025195290776977</v>
+        <v>1.025195290776978</v>
       </c>
       <c r="J23">
-        <v>0.9758817923500273</v>
+        <v>0.975881792350028</v>
       </c>
       <c r="K23">
-        <v>0.9910325026189098</v>
+        <v>0.9910325026189105</v>
       </c>
       <c r="L23">
-        <v>0.9740519606582771</v>
+        <v>0.9740519606582777</v>
       </c>
       <c r="M23">
-        <v>0.9784202581115298</v>
+        <v>0.9784202581115305</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9574193649195086</v>
+        <v>0.9574193649195101</v>
       </c>
       <c r="D24">
-        <v>0.985994583043543</v>
+        <v>0.9859945830435439</v>
       </c>
       <c r="E24">
-        <v>0.9697533687911061</v>
+        <v>0.9697533687911072</v>
       </c>
       <c r="F24">
-        <v>0.9763973719115127</v>
+        <v>0.9763973719115135</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030359021215821</v>
       </c>
       <c r="J24">
-        <v>0.986661123419075</v>
+        <v>0.9866611234190762</v>
       </c>
       <c r="K24">
-        <v>1.00027219608745</v>
+        <v>1.000272196087451</v>
       </c>
       <c r="L24">
-        <v>0.9843333189024331</v>
+        <v>0.9843333189024343</v>
       </c>
       <c r="M24">
-        <v>0.990852054369837</v>
+        <v>0.990852054369838</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9727808119693661</v>
+        <v>0.9727808119693672</v>
       </c>
       <c r="D25">
-        <v>0.9975653729625884</v>
+        <v>0.9975653729625892</v>
       </c>
       <c r="E25">
-        <v>0.9825314582564921</v>
+        <v>0.9825314582564929</v>
       </c>
       <c r="F25">
-        <v>0.9915128746037398</v>
+        <v>0.9915128746037405</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.035856832545798</v>
       </c>
       <c r="J25">
-        <v>0.9982602633900513</v>
+        <v>0.9982602633900518</v>
       </c>
       <c r="K25">
         <v>1.010201601317082</v>
       </c>
       <c r="L25">
-        <v>0.9954071421417653</v>
+        <v>0.9954071421417661</v>
       </c>
       <c r="M25">
-        <v>1.004244386714045</v>
+        <v>1.004244386714046</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9842325132661176</v>
+        <v>0.9865630960574951</v>
       </c>
       <c r="D2">
-        <v>1.006208063511143</v>
+        <v>1.007956188385964</v>
       </c>
       <c r="E2">
-        <v>0.9920878084438184</v>
+        <v>0.9940939267533406</v>
       </c>
       <c r="F2">
-        <v>1.002806599982521</v>
+        <v>1.004327521257617</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039901016675275</v>
+        <v>1.04082184679829</v>
       </c>
       <c r="J2">
-        <v>1.006895276806689</v>
+        <v>1.009153267200487</v>
       </c>
       <c r="K2">
-        <v>1.017581582415518</v>
+        <v>1.019305782617001</v>
       </c>
       <c r="L2">
-        <v>1.00365848445334</v>
+        <v>1.005636160445605</v>
       </c>
       <c r="M2">
-        <v>1.014226972402977</v>
+        <v>1.01572689428137</v>
+      </c>
+      <c r="N2">
+        <v>1.010586380591409</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9921479721546577</v>
+        <v>0.9944613384795645</v>
       </c>
       <c r="D3">
-        <v>1.012188214553256</v>
+        <v>1.013925664296496</v>
       </c>
       <c r="E3">
-        <v>0.9987078537312664</v>
+        <v>1.000701870841704</v>
       </c>
       <c r="F3">
-        <v>1.010625656694361</v>
+        <v>1.012130029448571</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042663231526606</v>
+        <v>1.043579165879839</v>
       </c>
       <c r="J3">
-        <v>1.012855004443437</v>
+        <v>1.015104140296213</v>
       </c>
       <c r="K3">
-        <v>1.022667484411437</v>
+        <v>1.024383411126037</v>
       </c>
       <c r="L3">
-        <v>1.009357294552536</v>
+        <v>1.011325778969886</v>
       </c>
       <c r="M3">
-        <v>1.021124361820515</v>
+        <v>1.022610021679756</v>
+      </c>
+      <c r="N3">
+        <v>1.016545704609506</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971030873458433</v>
+        <v>0.9994064686184378</v>
       </c>
       <c r="D4">
-        <v>1.015933744222409</v>
+        <v>1.017665046516374</v>
       </c>
       <c r="E4">
-        <v>1.002857982288588</v>
+        <v>1.004845021726757</v>
       </c>
       <c r="F4">
-        <v>1.015525820869528</v>
+        <v>1.017020502673521</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044376540559498</v>
+        <v>1.045289713237626</v>
       </c>
       <c r="J4">
-        <v>1.016581187860965</v>
+        <v>1.018825369184597</v>
       </c>
       <c r="K4">
-        <v>1.025843592588764</v>
+        <v>1.027554844367463</v>
       </c>
       <c r="L4">
-        <v>1.012922035934277</v>
+        <v>1.01488532121475</v>
       </c>
       <c r="M4">
-        <v>1.025440405769241</v>
+        <v>1.026917755243577</v>
+      </c>
+      <c r="N4">
+        <v>1.020272218069742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9991487192821629</v>
+        <v>1.001448153017647</v>
       </c>
       <c r="D5">
-        <v>1.017480349332899</v>
+        <v>1.019209232399649</v>
       </c>
       <c r="E5">
-        <v>1.004572606184788</v>
+        <v>1.006556897220276</v>
       </c>
       <c r="F5">
-        <v>1.017549993892453</v>
+        <v>1.01904082221288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045079970964862</v>
+        <v>1.04599207122953</v>
       </c>
       <c r="J5">
-        <v>1.018118288825581</v>
+        <v>1.020360555119964</v>
       </c>
       <c r="K5">
-        <v>1.027152853649812</v>
+        <v>1.028862287500151</v>
       </c>
       <c r="L5">
-        <v>1.014392931972423</v>
+        <v>1.016354193901922</v>
       </c>
       <c r="M5">
-        <v>1.027221713163124</v>
+        <v>1.028695768285259</v>
+      </c>
+      <c r="N5">
+        <v>1.021809584145225</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9994900570007498</v>
+        <v>1.001788841897389</v>
       </c>
       <c r="D6">
-        <v>1.017738434243105</v>
+        <v>1.019466920349374</v>
       </c>
       <c r="E6">
-        <v>1.004858785708963</v>
+        <v>1.006842625616651</v>
       </c>
       <c r="F6">
-        <v>1.017887821215087</v>
+        <v>1.019378014845818</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045197116284978</v>
+        <v>1.046109041452118</v>
       </c>
       <c r="J6">
-        <v>1.018374700172225</v>
+        <v>1.020616654298866</v>
       </c>
       <c r="K6">
-        <v>1.027371202553871</v>
+        <v>1.029080339411223</v>
       </c>
       <c r="L6">
-        <v>1.014638322048919</v>
+        <v>1.016599253323628</v>
       </c>
       <c r="M6">
-        <v>1.027518914044123</v>
+        <v>1.028992427175252</v>
+      </c>
+      <c r="N6">
+        <v>1.022066047014337</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971305654979788</v>
+        <v>0.9994338930725368</v>
       </c>
       <c r="D7">
-        <v>1.015954518012488</v>
+        <v>1.017685787352169</v>
       </c>
       <c r="E7">
-        <v>1.002881009068725</v>
+        <v>1.004868011078969</v>
       </c>
       <c r="F7">
-        <v>1.015553006000784</v>
+        <v>1.017047635475515</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044386004917449</v>
+        <v>1.045299162928378</v>
       </c>
       <c r="J7">
-        <v>1.016601839923176</v>
+        <v>1.018845995020082</v>
       </c>
       <c r="K7">
-        <v>1.025861187166318</v>
+        <v>1.027572414092873</v>
       </c>
       <c r="L7">
-        <v>1.012941796949013</v>
+        <v>1.014905054575891</v>
       </c>
       <c r="M7">
-        <v>1.025464335411257</v>
+        <v>1.026941640108031</v>
+      </c>
+      <c r="N7">
+        <v>1.02029287319628</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9869436259452272</v>
+        <v>0.9892681341035274</v>
       </c>
       <c r="D8">
-        <v>1.008255823831833</v>
+        <v>1.010000172746047</v>
       </c>
       <c r="E8">
-        <v>0.994353901407554</v>
+        <v>0.9963557411611114</v>
       </c>
       <c r="F8">
-        <v>1.005483508469378</v>
+        <v>1.006998611695062</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040850403129909</v>
+        <v>1.04176948899198</v>
       </c>
       <c r="J8">
-        <v>1.008937466128999</v>
+        <v>1.011192292184365</v>
       </c>
       <c r="K8">
-        <v>1.019325114068522</v>
+        <v>1.021046367970831</v>
       </c>
       <c r="L8">
-        <v>1.005610899778036</v>
+        <v>1.007585303586327</v>
       </c>
       <c r="M8">
-        <v>1.016589710957732</v>
+        <v>1.018084609582562</v>
+      </c>
+      <c r="N8">
+        <v>1.012628301224644</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.967594164519746</v>
+        <v>0.9699662574898631</v>
       </c>
       <c r="D9">
-        <v>0.9936553773592152</v>
+        <v>0.9954294961060629</v>
       </c>
       <c r="E9">
-        <v>0.9782117170058956</v>
+        <v>0.980247256568718</v>
       </c>
       <c r="F9">
-        <v>0.9864049154725277</v>
+        <v>0.9879651129723827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034008990983368</v>
+        <v>1.03494209827321</v>
       </c>
       <c r="J9">
-        <v>0.9943455445089083</v>
+        <v>0.9966260594548458</v>
       </c>
       <c r="K9">
-        <v>1.006852237260063</v>
+        <v>1.008597164364717</v>
       </c>
       <c r="L9">
-        <v>0.9916684705085012</v>
+        <v>0.9936691497315148</v>
       </c>
       <c r="M9">
-        <v>0.9997224829723281</v>
+        <v>1.001256513085476</v>
+      </c>
+      <c r="N9">
+        <v>0.9980413827738787</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9535583469370845</v>
+        <v>0.9559715059244398</v>
       </c>
       <c r="D10">
-        <v>0.9830912326147869</v>
+        <v>0.9848912705893971</v>
       </c>
       <c r="E10">
-        <v>0.9665492977529686</v>
+        <v>0.9686141476150382</v>
       </c>
       <c r="F10">
-        <v>0.9726042987408402</v>
+        <v>0.9742027397384302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028966251398812</v>
+        <v>1.029911913138843</v>
       </c>
       <c r="J10">
-        <v>0.9837439279064188</v>
+        <v>0.9860478422823431</v>
       </c>
       <c r="K10">
-        <v>0.9977726419466854</v>
+        <v>0.9995387834096823</v>
       </c>
       <c r="L10">
-        <v>0.9815499729677005</v>
+        <v>0.9835741885764175</v>
       </c>
       <c r="M10">
-        <v>0.9874864581837479</v>
+        <v>0.989053934609447</v>
+      </c>
+      <c r="N10">
+        <v>0.9874481433196524</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9471583890791554</v>
+        <v>0.9495922721430327</v>
       </c>
       <c r="D11">
-        <v>0.9782836000728492</v>
+        <v>0.9800967623791527</v>
       </c>
       <c r="E11">
-        <v>0.9612452455759729</v>
+        <v>0.9633249336880787</v>
       </c>
       <c r="F11">
-        <v>0.9663224143616568</v>
+        <v>0.9679399844057858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026649382355618</v>
+        <v>1.02760147942513</v>
       </c>
       <c r="J11">
-        <v>0.9789075410889765</v>
+        <v>0.9812235654298003</v>
       </c>
       <c r="K11">
-        <v>0.9936270146793369</v>
+        <v>0.9954040454608573</v>
       </c>
       <c r="L11">
-        <v>0.9769369953419805</v>
+        <v>0.9789732935265127</v>
       </c>
       <c r="M11">
-        <v>0.9819086694746458</v>
+        <v>0.9834929359476611</v>
+      </c>
+      <c r="N11">
+        <v>0.9826170154406269</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447273785489158</v>
+        <v>0.9471694812313454</v>
       </c>
       <c r="D12">
-        <v>0.9764591249598558</v>
+        <v>0.9782774983604121</v>
       </c>
       <c r="E12">
-        <v>0.9592328234827161</v>
+        <v>0.9613184030661432</v>
       </c>
       <c r="F12">
-        <v>0.9639380430352633</v>
+        <v>0.9655631734900464</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02576684195877</v>
+        <v>1.02672150569271</v>
       </c>
       <c r="J12">
-        <v>0.9770702646107737</v>
+        <v>0.9793911381604999</v>
       </c>
       <c r="K12">
-        <v>0.9920516684662525</v>
+        <v>0.9938330455025673</v>
       </c>
       <c r="L12">
-        <v>0.975185076083953</v>
+        <v>0.9772261972877135</v>
       </c>
       <c r="M12">
-        <v>0.9797903550135241</v>
+        <v>0.9813812664192644</v>
+      </c>
+      <c r="N12">
+        <v>0.9807819859144215</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9452513674015713</v>
+        <v>0.947691681855416</v>
       </c>
       <c r="D13">
-        <v>0.9768522974713766</v>
+        <v>0.9786695369264413</v>
       </c>
       <c r="E13">
-        <v>0.959666479602226</v>
+        <v>0.9617507771899342</v>
       </c>
       <c r="F13">
-        <v>0.9644518955416649</v>
+        <v>0.9660753823901302</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02595717731677</v>
+        <v>1.026911282028502</v>
       </c>
       <c r="J13">
-        <v>0.9774662833247081</v>
+        <v>0.9797860998162907</v>
       </c>
       <c r="K13">
-        <v>0.9923912496419457</v>
+        <v>0.9941716799029661</v>
       </c>
       <c r="L13">
-        <v>0.9755626737591556</v>
+        <v>0.977602744303723</v>
       </c>
       <c r="M13">
-        <v>0.980246923332194</v>
+        <v>0.9818363897530078</v>
+      </c>
+      <c r="N13">
+        <v>0.9811775084610663</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9469585720521518</v>
+        <v>0.9493931233816082</v>
       </c>
       <c r="D14">
-        <v>0.9781336011355301</v>
+        <v>0.9799471870021904</v>
       </c>
       <c r="E14">
-        <v>0.9610797860675082</v>
+        <v>0.9631599530424058</v>
       </c>
       <c r="F14">
-        <v>0.9661263935916855</v>
+        <v>0.9677445788435801</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026576891264713</v>
+        <v>1.027529196726239</v>
       </c>
       <c r="J14">
-        <v>0.9787565287812481</v>
+        <v>0.9810729464422154</v>
       </c>
       <c r="K14">
-        <v>0.9934975407156743</v>
+        <v>0.995274924308983</v>
       </c>
       <c r="L14">
-        <v>0.9767929887667474</v>
+        <v>0.9788296784533351</v>
       </c>
       <c r="M14">
-        <v>0.9817345454165859</v>
+        <v>0.9833193524242057</v>
+      </c>
+      <c r="N14">
+        <v>0.9824661825568034</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9480031363510756</v>
+        <v>0.9504342086647423</v>
       </c>
       <c r="D15">
-        <v>0.9789178067573082</v>
+        <v>0.9807291877744347</v>
       </c>
       <c r="E15">
-        <v>0.9619448382312973</v>
+        <v>0.9640225124751848</v>
       </c>
       <c r="F15">
-        <v>0.9671511861943344</v>
+        <v>0.9687661675856624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026955746172577</v>
+        <v>1.027906967302441</v>
       </c>
       <c r="J15">
-        <v>0.9795459548586015</v>
+        <v>0.9818603267249499</v>
       </c>
       <c r="K15">
-        <v>0.9941743546734731</v>
+        <v>0.995949902603128</v>
       </c>
       <c r="L15">
-        <v>0.9775458119345614</v>
+        <v>0.9795804646753499</v>
       </c>
       <c r="M15">
-        <v>0.9826448142216094</v>
+        <v>0.9842268066067293</v>
+      </c>
+      <c r="N15">
+        <v>0.9832546810098531</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.953975861203782</v>
+        <v>0.9563877131979454</v>
       </c>
       <c r="D16">
-        <v>0.9834050844191496</v>
+        <v>0.9852042954894271</v>
       </c>
       <c r="E16">
-        <v>0.9668956213720095</v>
+        <v>0.9689595363077734</v>
       </c>
       <c r="F16">
-        <v>0.9730143466807952</v>
+        <v>0.9746115778256232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029117047814254</v>
+        <v>1.030062305617852</v>
       </c>
       <c r="J16">
-        <v>0.9840594046611258</v>
+        <v>0.9863625613368173</v>
       </c>
       <c r="K16">
-        <v>0.9980429914659236</v>
+        <v>0.9998084497893774</v>
       </c>
       <c r="L16">
-        <v>0.9818509416990288</v>
+        <v>0.9838743993600189</v>
       </c>
       <c r="M16">
-        <v>0.9878503814208029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9894167971203425</v>
+      </c>
+      <c r="N16">
+        <v>0.9877633093112823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9576325627015971</v>
+        <v>0.9600331969434884</v>
       </c>
       <c r="D17">
-        <v>0.9861549622794957</v>
+        <v>0.9879470807339586</v>
       </c>
       <c r="E17">
-        <v>0.9699303821932929</v>
+        <v>0.9719862776788603</v>
       </c>
       <c r="F17">
-        <v>0.9766068897838056</v>
+        <v>0.9781937186511369</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030435810931927</v>
+        <v>1.031377612331537</v>
       </c>
       <c r="J17">
-        <v>0.9868221896908953</v>
+        <v>0.9891188752943837</v>
       </c>
       <c r="K17">
-        <v>1.000410179509223</v>
+        <v>1.002169794030488</v>
       </c>
       <c r="L17">
-        <v>0.9844870149744704</v>
+        <v>0.9865039890791575</v>
       </c>
       <c r="M17">
-        <v>0.9910379059557191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9925952080210564</v>
+      </c>
+      <c r="N17">
+        <v>0.9905235375508223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9597347540425547</v>
+        <v>0.9621291228093213</v>
       </c>
       <c r="D18">
-        <v>0.9877366846706404</v>
+        <v>0.9895248456100114</v>
       </c>
       <c r="E18">
-        <v>0.9716762909887285</v>
+        <v>0.9737277115103598</v>
       </c>
       <c r="F18">
-        <v>0.9786731983542338</v>
+        <v>0.9802542022634095</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031192302751069</v>
+        <v>1.032132182448347</v>
       </c>
       <c r="J18">
-        <v>0.988410249928259</v>
+        <v>0.9907033476855591</v>
       </c>
       <c r="K18">
-        <v>1.001770510561623</v>
+        <v>1.003526877280316</v>
       </c>
       <c r="L18">
-        <v>0.9860025200709233</v>
+        <v>0.9880158909201625</v>
       </c>
       <c r="M18">
-        <v>0.9928705027087089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9944227067747974</v>
+      </c>
+      <c r="N18">
+        <v>0.9921102600745351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9604464889801065</v>
+        <v>0.9628387663350164</v>
       </c>
       <c r="D19">
-        <v>0.9882723420511305</v>
+        <v>0.9900591826670495</v>
       </c>
       <c r="E19">
-        <v>0.9722676074118631</v>
+        <v>0.9743175349169164</v>
       </c>
       <c r="F19">
-        <v>0.9793729499342796</v>
+        <v>0.980952006964208</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03144814305055</v>
+        <v>1.032387382798823</v>
       </c>
       <c r="J19">
-        <v>0.9889478729662869</v>
+        <v>0.9912397775693186</v>
       </c>
       <c r="K19">
-        <v>1.002230979010172</v>
+        <v>1.003986264361198</v>
       </c>
       <c r="L19">
-        <v>0.9865156266844914</v>
+        <v>0.9885277978259355</v>
       </c>
       <c r="M19">
-        <v>0.9934909788412474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9950414799122903</v>
+      </c>
+      <c r="N19">
+        <v>0.9926474517502585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9572434448174028</v>
+        <v>0.9596452533794124</v>
       </c>
       <c r="D20">
-        <v>0.9858622509518769</v>
+        <v>0.9876551114820867</v>
       </c>
       <c r="E20">
-        <v>0.9696073133572222</v>
+        <v>0.971664047918983</v>
       </c>
       <c r="F20">
-        <v>0.9762244939455547</v>
+        <v>0.9778124133443207</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030295648825121</v>
+        <v>1.031237811133356</v>
       </c>
       <c r="J20">
-        <v>0.9865282182947952</v>
+        <v>0.9888255785289659</v>
       </c>
       <c r="K20">
-        <v>1.000158336033693</v>
+        <v>1.001918560611447</v>
       </c>
       <c r="L20">
-        <v>0.9842064969380531</v>
+        <v>0.9862241478727889</v>
       </c>
       <c r="M20">
-        <v>0.9906986996868175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9922569566254744</v>
+      </c>
+      <c r="N20">
+        <v>0.990229824270356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9464573746488535</v>
+        <v>0.9488936079390534</v>
       </c>
       <c r="D21">
-        <v>0.977757389809225</v>
+        <v>0.9795720418242527</v>
       </c>
       <c r="E21">
-        <v>0.96066480504587</v>
+        <v>0.9627461773702911</v>
       </c>
       <c r="F21">
-        <v>0.9656347476080074</v>
+        <v>0.9672544808533343</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026395023841631</v>
+        <v>1.027347854030487</v>
       </c>
       <c r="J21">
-        <v>0.9783777449927704</v>
+        <v>0.9806951533394028</v>
       </c>
       <c r="K21">
-        <v>0.993172774002115</v>
+        <v>0.9949510460224418</v>
       </c>
       <c r="L21">
-        <v>0.9764317853911416</v>
+        <v>0.9784694609408823</v>
       </c>
       <c r="M21">
-        <v>0.9812978002143422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.98288396746412</v>
+      </c>
+      <c r="N21">
+        <v>0.982087852944451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393612805570032</v>
+        <v>0.9418222308581912</v>
       </c>
       <c r="D22">
-        <v>0.9724353537425315</v>
+        <v>0.9742656858292221</v>
       </c>
       <c r="E22">
-        <v>0.9547952806896183</v>
+        <v>0.9568943804147741</v>
       </c>
       <c r="F22">
-        <v>0.9586784028454559</v>
+        <v>0.9603208180859353</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023814358704696</v>
+        <v>1.024774933928235</v>
       </c>
       <c r="J22">
-        <v>0.9730146092784522</v>
+        <v>0.9753466901566715</v>
       </c>
       <c r="K22">
-        <v>0.9885733889798406</v>
+        <v>0.9903647832534398</v>
       </c>
       <c r="L22">
-        <v>0.9713187837867721</v>
+        <v>0.9733710223405274</v>
       </c>
       <c r="M22">
-        <v>0.9751154321691292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9767215521170589</v>
+      </c>
+      <c r="N22">
+        <v>0.976731794330523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.94315487875448</v>
+        <v>0.9456024031178151</v>
       </c>
       <c r="D23">
-        <v>0.9752794803087538</v>
+        <v>0.9771012924489292</v>
       </c>
       <c r="E23">
-        <v>0.9579317740639216</v>
+        <v>0.9600212413594317</v>
       </c>
       <c r="F23">
-        <v>0.9623962387847208</v>
+        <v>0.9640263484603218</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025195290776978</v>
+        <v>1.026151651438133</v>
       </c>
       <c r="J23">
-        <v>0.975881792350028</v>
+        <v>0.9782058776176821</v>
       </c>
       <c r="K23">
-        <v>0.9910325026189105</v>
+        <v>0.9928167541540147</v>
       </c>
       <c r="L23">
-        <v>0.9740519606582777</v>
+        <v>0.9760962718575532</v>
       </c>
       <c r="M23">
-        <v>0.9784202581115305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9800155483328754</v>
+      </c>
+      <c r="N23">
+        <v>0.9795950421656815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9574193649195101</v>
+        <v>0.9598206420045869</v>
       </c>
       <c r="D24">
-        <v>0.9859945830435439</v>
+        <v>0.9877871077106757</v>
       </c>
       <c r="E24">
-        <v>0.9697533687911072</v>
+        <v>0.9718097235883978</v>
       </c>
       <c r="F24">
-        <v>0.9763973719115135</v>
+        <v>0.9779847978016472</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030359021215821</v>
+        <v>1.031301020155291</v>
       </c>
       <c r="J24">
-        <v>0.9866611234190762</v>
+        <v>0.9889581782438887</v>
       </c>
       <c r="K24">
-        <v>1.000272196087451</v>
+        <v>1.002032144513371</v>
       </c>
       <c r="L24">
-        <v>0.9843333189024343</v>
+        <v>0.9863506634589131</v>
       </c>
       <c r="M24">
-        <v>0.990852054369838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9924098791736757</v>
+      </c>
+      <c r="N24">
+        <v>0.9903626122920834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9727808119693672</v>
+        <v>0.9751391641078295</v>
       </c>
       <c r="D25">
-        <v>0.9975653729625892</v>
+        <v>0.9993308570778022</v>
       </c>
       <c r="E25">
-        <v>0.9825314582564929</v>
+        <v>0.9845572292515037</v>
       </c>
       <c r="F25">
-        <v>0.9915128746037405</v>
+        <v>0.9930601522558101</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035856832545798</v>
+        <v>1.03678581797775</v>
       </c>
       <c r="J25">
-        <v>0.9982602633900518</v>
+        <v>1.000533171343892</v>
       </c>
       <c r="K25">
-        <v>1.010201601317082</v>
+        <v>1.011939569516849</v>
       </c>
       <c r="L25">
-        <v>0.9954071421417661</v>
+        <v>0.9974001001186816</v>
       </c>
       <c r="M25">
-        <v>1.004244386714046</v>
+        <v>1.005767164275412</v>
+      </c>
+      <c r="N25">
+        <v>1.001954043209959</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865630960574951</v>
+        <v>0.9931411653776775</v>
       </c>
       <c r="D2">
-        <v>1.007956188385964</v>
+        <v>1.01184484009664</v>
       </c>
       <c r="E2">
-        <v>0.9940939267533406</v>
-      </c>
-      <c r="F2">
-        <v>1.004327521257617</v>
+        <v>1.000412358249731</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04082184679829</v>
+        <v>1.038862191276658</v>
       </c>
       <c r="J2">
-        <v>1.009153267200487</v>
+        <v>1.015528976386938</v>
       </c>
       <c r="K2">
-        <v>1.019305782617001</v>
+        <v>1.023141587508761</v>
       </c>
       <c r="L2">
-        <v>1.005636160445605</v>
-      </c>
-      <c r="M2">
-        <v>1.01572689428137</v>
+        <v>1.011865951254807</v>
       </c>
       <c r="N2">
-        <v>1.010586380591409</v>
+        <v>1.016971144016209</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9944613384795645</v>
+        <v>0.9987336352520667</v>
       </c>
       <c r="D3">
-        <v>1.013925664296496</v>
+        <v>1.015937854013579</v>
       </c>
       <c r="E3">
-        <v>1.000701870841704</v>
-      </c>
-      <c r="F3">
-        <v>1.012130029448571</v>
+        <v>1.004951154400431</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043579165879839</v>
+        <v>1.040274486332892</v>
       </c>
       <c r="J3">
-        <v>1.015104140296213</v>
+        <v>1.019258882280904</v>
       </c>
       <c r="K3">
-        <v>1.024383411126037</v>
+        <v>1.026370788885092</v>
       </c>
       <c r="L3">
-        <v>1.011325778969886</v>
-      </c>
-      <c r="M3">
-        <v>1.022610021679756</v>
+        <v>1.015521073847414</v>
       </c>
       <c r="N3">
-        <v>1.016545704609506</v>
+        <v>1.020706346804371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994064686184378</v>
+        <v>1.002264054546254</v>
       </c>
       <c r="D4">
-        <v>1.017665046516374</v>
+        <v>1.018523838574022</v>
       </c>
       <c r="E4">
-        <v>1.004845021726757</v>
-      </c>
-      <c r="F4">
-        <v>1.017020502673521</v>
+        <v>1.007822800814907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045289713237626</v>
+        <v>1.041154837768298</v>
       </c>
       <c r="J4">
-        <v>1.018825369184597</v>
+        <v>1.02161002235428</v>
       </c>
       <c r="K4">
-        <v>1.027554844367463</v>
+        <v>1.028403721844966</v>
       </c>
       <c r="L4">
-        <v>1.01488532121475</v>
-      </c>
-      <c r="M4">
-        <v>1.026917755243577</v>
+        <v>1.017827719566156</v>
       </c>
       <c r="N4">
-        <v>1.020272218069742</v>
+        <v>1.02306082576633</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001448153017647</v>
+        <v>1.003728017007823</v>
       </c>
       <c r="D5">
-        <v>1.019209232399649</v>
+        <v>1.019596604048529</v>
       </c>
       <c r="E5">
-        <v>1.006556897220276</v>
-      </c>
-      <c r="F5">
-        <v>1.01904082221288</v>
+        <v>1.009015059532519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04599207122953</v>
+        <v>1.041517154285606</v>
       </c>
       <c r="J5">
-        <v>1.020360555119964</v>
+        <v>1.022584086393565</v>
       </c>
       <c r="K5">
-        <v>1.028862287500151</v>
+        <v>1.029245312516225</v>
       </c>
       <c r="L5">
-        <v>1.016354193901922</v>
-      </c>
-      <c r="M5">
-        <v>1.028695768285259</v>
+        <v>1.018783982614846</v>
       </c>
       <c r="N5">
-        <v>1.021809584145225</v>
+        <v>1.024036273088278</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001788841897389</v>
+        <v>1.003972662067829</v>
       </c>
       <c r="D6">
-        <v>1.019466920349374</v>
+        <v>1.019775898706773</v>
       </c>
       <c r="E6">
-        <v>1.006842625616651</v>
-      </c>
-      <c r="F6">
-        <v>1.019378014845818</v>
+        <v>1.009214384426427</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046109041452118</v>
+        <v>1.041577539003515</v>
       </c>
       <c r="J6">
-        <v>1.020616654298866</v>
+        <v>1.022746810246154</v>
       </c>
       <c r="K6">
-        <v>1.029080339411223</v>
+        <v>1.029385867466725</v>
       </c>
       <c r="L6">
-        <v>1.016599253323628</v>
-      </c>
-      <c r="M6">
-        <v>1.028992427175252</v>
+        <v>1.018943769858112</v>
       </c>
       <c r="N6">
-        <v>1.022066047014337</v>
+        <v>1.024199228027403</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9994338930725368</v>
+        <v>1.002283694396894</v>
       </c>
       <c r="D7">
-        <v>1.017685787352169</v>
+        <v>1.018538228699039</v>
       </c>
       <c r="E7">
-        <v>1.004868011078969</v>
-      </c>
-      <c r="F7">
-        <v>1.017047635475515</v>
+        <v>1.007838789880485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045299162928378</v>
+        <v>1.041159709339934</v>
       </c>
       <c r="J7">
-        <v>1.018845995020082</v>
+        <v>1.021623093518874</v>
       </c>
       <c r="K7">
-        <v>1.027572414092873</v>
+        <v>1.028415017888608</v>
       </c>
       <c r="L7">
-        <v>1.014905054575891</v>
-      </c>
-      <c r="M7">
-        <v>1.026941640108031</v>
+        <v>1.017840549355021</v>
       </c>
       <c r="N7">
-        <v>1.02029287319628</v>
+        <v>1.023073915493477</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9892681341035274</v>
+        <v>0.9950500123473834</v>
       </c>
       <c r="D8">
-        <v>1.010000172746047</v>
+        <v>1.013241384160348</v>
       </c>
       <c r="E8">
-        <v>0.9963557411611114</v>
-      </c>
-      <c r="F8">
-        <v>1.006998611695062</v>
+        <v>1.001960176729135</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04176948899198</v>
+        <v>1.039346566033503</v>
       </c>
       <c r="J8">
-        <v>1.011192292184365</v>
+        <v>1.016802784148022</v>
       </c>
       <c r="K8">
-        <v>1.021046367970831</v>
+        <v>1.024244930688375</v>
       </c>
       <c r="L8">
-        <v>1.007585303586327</v>
-      </c>
-      <c r="M8">
-        <v>1.018084609582562</v>
+        <v>1.013113661482552</v>
       </c>
       <c r="N8">
-        <v>1.012628301224644</v>
+        <v>1.018246760730421</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9699662574898631</v>
+        <v>0.9815831410343198</v>
       </c>
       <c r="D9">
-        <v>0.9954294961060629</v>
+        <v>1.003401555985049</v>
       </c>
       <c r="E9">
-        <v>0.980247256568718</v>
-      </c>
-      <c r="F9">
-        <v>0.9879651129723827</v>
+        <v>0.9910705155841318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03494209827321</v>
+        <v>1.035883579570711</v>
       </c>
       <c r="J9">
-        <v>0.9966260594548458</v>
+        <v>1.007803438851928</v>
       </c>
       <c r="K9">
-        <v>1.008597164364717</v>
+        <v>1.016439685342129</v>
       </c>
       <c r="L9">
-        <v>0.9936691497315148</v>
-      </c>
-      <c r="M9">
-        <v>1.001256513085476</v>
+        <v>1.004310148090122</v>
       </c>
       <c r="N9">
-        <v>0.9980413827738787</v>
+        <v>1.009234635331768</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9559715059244398</v>
+        <v>0.9720539141711173</v>
       </c>
       <c r="D10">
-        <v>0.9848912705893971</v>
+        <v>0.9964594078128526</v>
       </c>
       <c r="E10">
-        <v>0.9686141476150382</v>
-      </c>
-      <c r="F10">
-        <v>0.9742027397384302</v>
+        <v>0.9834068355112532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029911913138843</v>
+        <v>1.033377332576315</v>
       </c>
       <c r="J10">
-        <v>0.9860478422823431</v>
+        <v>1.001421922949974</v>
       </c>
       <c r="K10">
-        <v>0.9995387834096823</v>
+        <v>1.010892884360898</v>
       </c>
       <c r="L10">
-        <v>0.9835741885764175</v>
-      </c>
-      <c r="M10">
-        <v>0.989053934609447</v>
+        <v>0.9980822900041837</v>
       </c>
       <c r="N10">
-        <v>0.9874481433196524</v>
+        <v>1.002844056945263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9495922721430327</v>
+        <v>0.9677801052703509</v>
       </c>
       <c r="D11">
-        <v>0.9800967623791527</v>
+        <v>0.9933522653024013</v>
       </c>
       <c r="E11">
-        <v>0.9633249336880787</v>
-      </c>
-      <c r="F11">
-        <v>0.9679399844057858</v>
+        <v>0.9799808671121231</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02760147942513</v>
+        <v>1.03224089065835</v>
       </c>
       <c r="J11">
-        <v>0.9812235654298003</v>
+        <v>0.9985575351578343</v>
       </c>
       <c r="K11">
-        <v>0.9954040454608573</v>
+        <v>1.00840064658546</v>
       </c>
       <c r="L11">
-        <v>0.9789732935265127</v>
-      </c>
-      <c r="M11">
-        <v>0.9834929359476611</v>
+        <v>0.9952904544218442</v>
       </c>
       <c r="N11">
-        <v>0.9826170154406269</v>
+        <v>0.9999756013939087</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9471694812313454</v>
+        <v>0.96616885922031</v>
       </c>
       <c r="D12">
-        <v>0.9782774983604121</v>
+        <v>0.9921819531268931</v>
       </c>
       <c r="E12">
-        <v>0.9613184030661432</v>
-      </c>
-      <c r="F12">
-        <v>0.9655631734900464</v>
+        <v>0.9786910482913652</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02672150569271</v>
+        <v>1.031810659849271</v>
       </c>
       <c r="J12">
-        <v>0.9793911381604999</v>
+        <v>0.997477382900118</v>
       </c>
       <c r="K12">
-        <v>0.9938330455025673</v>
+        <v>1.007460483137989</v>
       </c>
       <c r="L12">
-        <v>0.9772261972877135</v>
-      </c>
-      <c r="M12">
-        <v>0.9813812664192644</v>
+        <v>0.9942382066844627</v>
       </c>
       <c r="N12">
-        <v>0.9807819859144215</v>
+        <v>0.9988939151960913</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.947691681855416</v>
+        <v>0.9665155794802088</v>
       </c>
       <c r="D13">
-        <v>0.9786695369264413</v>
+        <v>0.992433738093347</v>
       </c>
       <c r="E13">
-        <v>0.9617507771899342</v>
-      </c>
-      <c r="F13">
-        <v>0.9660753823901302</v>
+        <v>0.978968518775696</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026911282028502</v>
+        <v>1.031903319623691</v>
       </c>
       <c r="J13">
-        <v>0.9797860998162907</v>
+        <v>0.9977098288935823</v>
       </c>
       <c r="K13">
-        <v>0.9941716799029661</v>
+        <v>1.007662819102894</v>
       </c>
       <c r="L13">
-        <v>0.977602744303723</v>
-      </c>
-      <c r="M13">
-        <v>0.9818363897530078</v>
+        <v>0.9944646229470879</v>
       </c>
       <c r="N13">
-        <v>0.9811775084610663</v>
+        <v>0.999126691289528</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9493931233816082</v>
+        <v>0.9676474136575338</v>
       </c>
       <c r="D14">
-        <v>0.9799471870021904</v>
+        <v>0.9932558630371273</v>
       </c>
       <c r="E14">
-        <v>0.9631599530424058</v>
-      </c>
-      <c r="F14">
-        <v>0.9677445788435801</v>
+        <v>0.9798746091629703</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027529196726239</v>
+        <v>1.032205495506616</v>
       </c>
       <c r="J14">
-        <v>0.9810729464422154</v>
+        <v>0.9984685858084206</v>
       </c>
       <c r="K14">
-        <v>0.995274924308983</v>
+        <v>1.008323232042678</v>
       </c>
       <c r="L14">
-        <v>0.9788296784533351</v>
-      </c>
-      <c r="M14">
-        <v>0.9833193524242057</v>
+        <v>0.9952037918631524</v>
       </c>
       <c r="N14">
-        <v>0.9824661825568034</v>
+        <v>0.9998865257262162</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9504342086647423</v>
+        <v>0.968341575105571</v>
       </c>
       <c r="D15">
-        <v>0.9807291877744347</v>
+        <v>0.9937602262133839</v>
       </c>
       <c r="E15">
-        <v>0.9640225124751848</v>
-      </c>
-      <c r="F15">
-        <v>0.9687661675856624</v>
+        <v>0.9804305592793544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027906967302441</v>
+        <v>1.03239058904289</v>
       </c>
       <c r="J15">
-        <v>0.9818603267249499</v>
+        <v>0.9989339041940424</v>
       </c>
       <c r="K15">
-        <v>0.995949902603128</v>
+        <v>1.008728194723335</v>
       </c>
       <c r="L15">
-        <v>0.9795804646753499</v>
-      </c>
-      <c r="M15">
-        <v>0.9842268066067293</v>
+        <v>0.9956571696616124</v>
       </c>
       <c r="N15">
-        <v>0.9832546810098531</v>
+        <v>1.000352504917318</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9563877131979454</v>
+        <v>0.9723343109538606</v>
       </c>
       <c r="D16">
-        <v>0.9852042954894271</v>
+        <v>0.9966634055245426</v>
       </c>
       <c r="E16">
-        <v>0.9689595363077734</v>
-      </c>
-      <c r="F16">
-        <v>0.9746115778256232</v>
+        <v>0.9836318479236089</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030062305617852</v>
+        <v>1.033451641147847</v>
       </c>
       <c r="J16">
-        <v>0.9863625613368173</v>
+        <v>1.001609809014745</v>
       </c>
       <c r="K16">
-        <v>0.9998084497893774</v>
+        <v>1.011056309928848</v>
       </c>
       <c r="L16">
-        <v>0.9838743993600189</v>
-      </c>
-      <c r="M16">
-        <v>0.9894167971203425</v>
+        <v>0.9982654920621954</v>
       </c>
       <c r="N16">
-        <v>0.9877633093112823</v>
+        <v>1.003032209829797</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9600331969434884</v>
+        <v>0.9747982585676369</v>
       </c>
       <c r="D17">
-        <v>0.9879470807339586</v>
+        <v>0.9984567454702103</v>
       </c>
       <c r="E17">
-        <v>0.9719862776788603</v>
-      </c>
-      <c r="F17">
-        <v>0.9781937186511369</v>
+        <v>0.9856103903473468</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031377612331537</v>
+        <v>1.034103219793508</v>
       </c>
       <c r="J17">
-        <v>0.9891188752943837</v>
+        <v>1.003260578989174</v>
       </c>
       <c r="K17">
-        <v>1.002169794030488</v>
+        <v>1.012491887743782</v>
       </c>
       <c r="L17">
-        <v>0.9865039890791575</v>
-      </c>
-      <c r="M17">
-        <v>0.9925952080210564</v>
+        <v>0.9998755150357758</v>
       </c>
       <c r="N17">
-        <v>0.9905235375508223</v>
+        <v>1.004685324086935</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9621291228093213</v>
+        <v>0.9762213121467902</v>
       </c>
       <c r="D18">
-        <v>0.9895248456100114</v>
+        <v>0.9994930822231567</v>
       </c>
       <c r="E18">
-        <v>0.9737277115103598</v>
-      </c>
-      <c r="F18">
-        <v>0.9802542022634095</v>
+        <v>0.9867541439099879</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032132182448347</v>
+        <v>1.034478362207887</v>
       </c>
       <c r="J18">
-        <v>0.9907033476855591</v>
+        <v>1.004213757606463</v>
       </c>
       <c r="K18">
-        <v>1.003526877280316</v>
+        <v>1.013320571468761</v>
       </c>
       <c r="L18">
-        <v>0.9880158909201625</v>
-      </c>
-      <c r="M18">
-        <v>0.9944227067747974</v>
+        <v>1.000805503468458</v>
       </c>
       <c r="N18">
-        <v>0.9921102600745351</v>
+        <v>1.005639856327193</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9628387663350164</v>
+        <v>0.9767041865835361</v>
       </c>
       <c r="D19">
-        <v>0.9900591826670495</v>
+        <v>0.9998448314816567</v>
       </c>
       <c r="E19">
-        <v>0.9743175349169164</v>
-      </c>
-      <c r="F19">
-        <v>0.980952006964208</v>
+        <v>0.9871424197265316</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032387382798823</v>
+        <v>1.034605454707392</v>
       </c>
       <c r="J19">
-        <v>0.9912397775693186</v>
+        <v>1.004537152425999</v>
       </c>
       <c r="K19">
-        <v>1.003986264361198</v>
+        <v>1.013601686059821</v>
       </c>
       <c r="L19">
-        <v>0.9885277978259355</v>
-      </c>
-      <c r="M19">
-        <v>0.9950414799122903</v>
+        <v>1.001121087402922</v>
       </c>
       <c r="N19">
-        <v>0.9926474517502585</v>
+        <v>1.005963710404466</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9596452533794124</v>
+        <v>0.9745353723698094</v>
       </c>
       <c r="D20">
-        <v>0.9876551114820867</v>
+        <v>0.9982653459864097</v>
       </c>
       <c r="E20">
-        <v>0.971664047918983</v>
-      </c>
-      <c r="F20">
-        <v>0.9778124133443207</v>
+        <v>0.9853991841733969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031237811133356</v>
+        <v>1.034033822528826</v>
       </c>
       <c r="J20">
-        <v>0.9888255785289659</v>
+        <v>1.003084475921291</v>
       </c>
       <c r="K20">
-        <v>1.001918560611447</v>
+        <v>1.012338765926744</v>
       </c>
       <c r="L20">
-        <v>0.9862241478727889</v>
-      </c>
-      <c r="M20">
-        <v>0.9922569566254744</v>
+        <v>0.9997037237144818</v>
       </c>
       <c r="N20">
-        <v>0.990229824270356</v>
+        <v>1.004508970932496</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9488936079390534</v>
+        <v>0.967314786205732</v>
       </c>
       <c r="D21">
-        <v>0.9795720418242527</v>
+        <v>0.9930142227720365</v>
       </c>
       <c r="E21">
-        <v>0.9627461773702911</v>
-      </c>
-      <c r="F21">
-        <v>0.9672544808533343</v>
+        <v>0.9796082740106854</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027347854030487</v>
+        <v>1.032116739483674</v>
       </c>
       <c r="J21">
-        <v>0.9806951533394028</v>
+        <v>0.9982456062147671</v>
       </c>
       <c r="K21">
-        <v>0.9949510460224418</v>
+        <v>1.008129162586437</v>
       </c>
       <c r="L21">
-        <v>0.9784694609408823</v>
-      </c>
-      <c r="M21">
-        <v>0.98288396746412</v>
+        <v>0.9949865536341884</v>
       </c>
       <c r="N21">
-        <v>0.982087852944451</v>
+        <v>0.9996632294759635</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9418222308581912</v>
+        <v>0.9626365295693896</v>
       </c>
       <c r="D22">
-        <v>0.9742656858292221</v>
+        <v>0.9896184587545397</v>
       </c>
       <c r="E22">
-        <v>0.9568943804147741</v>
-      </c>
-      <c r="F22">
-        <v>0.9603208180859353</v>
+        <v>0.9758668052645542</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024774933928235</v>
+        <v>1.030864264479157</v>
       </c>
       <c r="J22">
-        <v>0.9753466901566715</v>
+        <v>0.9951089777011181</v>
       </c>
       <c r="K22">
-        <v>0.9903647832534398</v>
+        <v>1.00539842000989</v>
       </c>
       <c r="L22">
-        <v>0.9733710223405274</v>
-      </c>
-      <c r="M22">
-        <v>0.9767215521170589</v>
+        <v>0.9919319995851186</v>
       </c>
       <c r="N22">
-        <v>0.976731794330523</v>
+        <v>0.996522146590049</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9456024031178151</v>
+        <v>0.9651302508368098</v>
       </c>
       <c r="D23">
-        <v>0.9771012924489292</v>
+        <v>0.9914278971917926</v>
       </c>
       <c r="E23">
-        <v>0.9600212413594317</v>
-      </c>
-      <c r="F23">
-        <v>0.9640263484603218</v>
+        <v>0.9778601502258251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026151651438133</v>
+        <v>1.031532839662014</v>
       </c>
       <c r="J23">
-        <v>0.9782058776176821</v>
+        <v>0.9967810535660777</v>
       </c>
       <c r="K23">
-        <v>0.9928167541540147</v>
+        <v>1.006854304677436</v>
       </c>
       <c r="L23">
-        <v>0.9760962718575532</v>
-      </c>
-      <c r="M23">
-        <v>0.9800155483328754</v>
+        <v>0.9935600209042019</v>
       </c>
       <c r="N23">
-        <v>0.9795950421656815</v>
+        <v>0.9981965969945263</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9598206420045869</v>
+        <v>0.9746542028610308</v>
       </c>
       <c r="D24">
-        <v>0.9877871077106757</v>
+        <v>0.9983518610410953</v>
       </c>
       <c r="E24">
-        <v>0.9718097235883978</v>
-      </c>
-      <c r="F24">
-        <v>0.9779847978016472</v>
+        <v>0.9854946508909375</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031301020155291</v>
+        <v>1.034065195315963</v>
       </c>
       <c r="J24">
-        <v>0.9889581782438887</v>
+        <v>1.003164079181548</v>
       </c>
       <c r="K24">
-        <v>1.002032144513371</v>
+        <v>1.012407981798228</v>
       </c>
       <c r="L24">
-        <v>0.9863506634589131</v>
-      </c>
-      <c r="M24">
-        <v>0.9924098791736757</v>
+        <v>0.9997813769032552</v>
       </c>
       <c r="N24">
-        <v>0.9903626122920834</v>
+        <v>1.004588687238514</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9751391641078295</v>
+        <v>0.9851565561312572</v>
       </c>
       <c r="D25">
-        <v>0.9993308570778022</v>
+        <v>1.006009476762607</v>
       </c>
       <c r="E25">
-        <v>0.9845572292515037</v>
-      </c>
-      <c r="F25">
-        <v>0.9930601522558101</v>
+        <v>0.9939532621486651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03678581797775</v>
+        <v>1.03681230639313</v>
       </c>
       <c r="J25">
-        <v>1.000533171343892</v>
+        <v>1.01019399954021</v>
       </c>
       <c r="K25">
-        <v>1.011939569516849</v>
+        <v>1.018515214173344</v>
       </c>
       <c r="L25">
-        <v>0.9974001001186816</v>
-      </c>
-      <c r="M25">
-        <v>1.005767164275412</v>
+        <v>1.006646176823623</v>
       </c>
       <c r="N25">
-        <v>1.001954043209959</v>
+        <v>1.011628590890428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9931411653776775</v>
+        <v>1.001415086807556</v>
       </c>
       <c r="D2">
-        <v>1.01184484009664</v>
+        <v>1.018539451230848</v>
       </c>
       <c r="E2">
-        <v>1.000412358249731</v>
+        <v>1.007742927129379</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038862191276658</v>
+        <v>1.043934434999549</v>
       </c>
       <c r="J2">
-        <v>1.015528976386938</v>
+        <v>1.023553555094374</v>
       </c>
       <c r="K2">
-        <v>1.023141587508761</v>
+        <v>1.029746405688452</v>
       </c>
       <c r="L2">
-        <v>1.011865951254807</v>
+        <v>1.019095434436506</v>
       </c>
       <c r="N2">
-        <v>1.016971144016209</v>
+        <v>1.01192513320635</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9987336352520667</v>
+        <v>1.004773533948146</v>
       </c>
       <c r="D3">
-        <v>1.015937854013579</v>
+        <v>1.020868619329701</v>
       </c>
       <c r="E3">
-        <v>1.004951154400431</v>
+        <v>1.010337629899553</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040274486332892</v>
+        <v>1.044811915170326</v>
       </c>
       <c r="J3">
-        <v>1.019258882280904</v>
+        <v>1.025134908125519</v>
       </c>
       <c r="K3">
-        <v>1.026370788885092</v>
+        <v>1.031241267647143</v>
       </c>
       <c r="L3">
-        <v>1.015521073847414</v>
+        <v>1.020839925711605</v>
       </c>
       <c r="N3">
-        <v>1.020706346804371</v>
+        <v>1.012444940134689</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C4">
-        <v>1.002264054546254</v>
+        <v>1.006908260780042</v>
       </c>
       <c r="D4">
-        <v>1.018523838574022</v>
+        <v>1.022350868288702</v>
       </c>
       <c r="E4">
-        <v>1.007822800814907</v>
+        <v>1.011992484952382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041154837768298</v>
+        <v>1.045359163398268</v>
       </c>
       <c r="J4">
-        <v>1.02161002235428</v>
+        <v>1.026136888276738</v>
       </c>
       <c r="K4">
-        <v>1.028403721844966</v>
+        <v>1.032186819171428</v>
       </c>
       <c r="L4">
-        <v>1.017827719566156</v>
+        <v>1.021948294274874</v>
       </c>
       <c r="N4">
-        <v>1.02306082576633</v>
+        <v>1.012774324254838</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003728017007823</v>
+        <v>1.007796741720581</v>
       </c>
       <c r="D5">
-        <v>1.019596604048529</v>
+        <v>1.022968171266043</v>
       </c>
       <c r="E5">
-        <v>1.009015059532519</v>
+        <v>1.012682554427814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041517154285606</v>
+        <v>1.045584372413222</v>
       </c>
       <c r="J5">
-        <v>1.022584086393565</v>
+        <v>1.026553129433032</v>
       </c>
       <c r="K5">
-        <v>1.029245312516225</v>
+        <v>1.032579218969168</v>
       </c>
       <c r="L5">
-        <v>1.018783982614846</v>
+        <v>1.022409460992081</v>
       </c>
       <c r="N5">
-        <v>1.024036273088278</v>
+        <v>1.012911161645931</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003972662067829</v>
+        <v>1.00794540301362</v>
       </c>
       <c r="D6">
-        <v>1.019775898706773</v>
+        <v>1.023071480463904</v>
       </c>
       <c r="E6">
-        <v>1.009214384426427</v>
+        <v>1.012798093750782</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041577539003515</v>
+        <v>1.045621903135518</v>
       </c>
       <c r="J6">
-        <v>1.022746810246154</v>
+        <v>1.02662272825808</v>
       </c>
       <c r="K6">
-        <v>1.029385867466725</v>
+        <v>1.032644807536326</v>
       </c>
       <c r="L6">
-        <v>1.018943769858112</v>
+        <v>1.022486614792617</v>
       </c>
       <c r="N6">
-        <v>1.024199228027403</v>
+        <v>1.012934042232596</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002283694396894</v>
+        <v>1.006920167596029</v>
       </c>
       <c r="D7">
-        <v>1.018538228699039</v>
+        <v>1.022359139488175</v>
       </c>
       <c r="E7">
-        <v>1.007838789880485</v>
+        <v>1.012001727645378</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041159709339934</v>
+        <v>1.045362191643114</v>
       </c>
       <c r="J7">
-        <v>1.021623093518874</v>
+        <v>1.026142469595267</v>
       </c>
       <c r="K7">
-        <v>1.028415017888608</v>
+        <v>1.032192082397417</v>
       </c>
       <c r="L7">
-        <v>1.017840549355021</v>
+        <v>1.021954475103054</v>
       </c>
       <c r="N7">
-        <v>1.023073915493477</v>
+        <v>1.012776159068308</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9950500123473834</v>
+        <v>1.002558189650093</v>
       </c>
       <c r="D8">
-        <v>1.013241384160348</v>
+        <v>1.019331830374162</v>
       </c>
       <c r="E8">
-        <v>1.001960176729135</v>
+        <v>1.008624890698655</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039346566033503</v>
+        <v>1.044235275441157</v>
       </c>
       <c r="J8">
-        <v>1.016802784148022</v>
+        <v>1.024092443627207</v>
       </c>
       <c r="K8">
-        <v>1.024244930688375</v>
+        <v>1.030256155212195</v>
       </c>
       <c r="L8">
-        <v>1.013113661482552</v>
+        <v>1.01968928616518</v>
       </c>
       <c r="N8">
-        <v>1.018246760730421</v>
+        <v>1.012102266316078</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9815831410343198</v>
+        <v>0.9945664736656488</v>
       </c>
       <c r="D9">
-        <v>1.003401555985049</v>
+        <v>1.013801099639633</v>
       </c>
       <c r="E9">
-        <v>0.9910705155841318</v>
+        <v>1.002483615009206</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035883579570711</v>
+        <v>1.042089211808326</v>
       </c>
       <c r="J9">
-        <v>1.007803438851928</v>
+        <v>1.020312573645561</v>
       </c>
       <c r="K9">
-        <v>1.016439685342129</v>
+        <v>1.026674162829073</v>
       </c>
       <c r="L9">
-        <v>1.004310148090122</v>
+        <v>1.015536525402396</v>
       </c>
       <c r="N9">
-        <v>1.009234635331768</v>
+        <v>1.010859933783394</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9720539141711173</v>
+        <v>0.9890170386505222</v>
       </c>
       <c r="D10">
-        <v>0.9964594078128526</v>
+        <v>1.009973715550277</v>
       </c>
       <c r="E10">
-        <v>0.9834068355112532</v>
+        <v>0.9982518577614995</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033377332576315</v>
+        <v>1.040546345132545</v>
       </c>
       <c r="J10">
-        <v>1.001421922949974</v>
+        <v>1.017673290977273</v>
       </c>
       <c r="K10">
-        <v>1.010892884360898</v>
+        <v>1.024165196604415</v>
       </c>
       <c r="L10">
-        <v>0.9980822900041837</v>
+        <v>1.012652747353926</v>
       </c>
       <c r="N10">
-        <v>1.002844056945263</v>
+        <v>1.009992640993013</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9677801052703509</v>
+        <v>0.9865576468901235</v>
       </c>
       <c r="D11">
-        <v>0.9933522653024013</v>
+        <v>1.008281200098264</v>
       </c>
       <c r="E11">
-        <v>0.9799808671121231</v>
+        <v>0.9963846542499395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03224089065835</v>
+        <v>1.039850621684591</v>
       </c>
       <c r="J11">
-        <v>0.9985575351578343</v>
+        <v>1.016500536731052</v>
       </c>
       <c r="K11">
-        <v>1.00840064658546</v>
+        <v>1.023048616833842</v>
       </c>
       <c r="L11">
-        <v>0.9952904544218442</v>
+        <v>1.011375074284635</v>
       </c>
       <c r="N11">
-        <v>0.9999756013939087</v>
+        <v>1.009607307128572</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.96616885922031</v>
+        <v>0.9856352902530426</v>
       </c>
       <c r="D12">
-        <v>0.9921819531268931</v>
+        <v>1.007647055273968</v>
       </c>
       <c r="E12">
-        <v>0.9786910482913652</v>
+        <v>0.9956856643206882</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031810659849271</v>
+        <v>1.039587950074133</v>
       </c>
       <c r="J12">
-        <v>0.997477382900118</v>
+        <v>1.016060282673712</v>
       </c>
       <c r="K12">
-        <v>1.007460483137989</v>
+        <v>1.02262920172094</v>
       </c>
       <c r="L12">
-        <v>0.9942382066844627</v>
+        <v>1.010895989608447</v>
       </c>
       <c r="N12">
-        <v>0.9988939151960913</v>
+        <v>1.009462659193702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9665155794802088</v>
+        <v>0.9858335442064685</v>
       </c>
       <c r="D13">
-        <v>0.992433738093347</v>
+        <v>1.007783331905195</v>
       </c>
       <c r="E13">
-        <v>0.978968518775696</v>
+        <v>0.9958358488771387</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031903319623691</v>
+        <v>1.039644487873781</v>
       </c>
       <c r="J13">
-        <v>0.9977098288935823</v>
+        <v>1.016154931079924</v>
       </c>
       <c r="K13">
-        <v>1.007662819102894</v>
+        <v>1.022719381125261</v>
       </c>
       <c r="L13">
-        <v>0.9944646229470879</v>
+        <v>1.010998960964716</v>
       </c>
       <c r="N13">
-        <v>0.999126691289528</v>
+        <v>1.009493756129318</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9676474136575338</v>
+        <v>0.9864815867891688</v>
       </c>
       <c r="D14">
-        <v>0.9932558630371273</v>
+        <v>1.008228894106946</v>
       </c>
       <c r="E14">
-        <v>0.9798746091629703</v>
+        <v>0.9963269874046378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032205495506616</v>
+        <v>1.039828996408813</v>
       </c>
       <c r="J14">
-        <v>0.9984685858084206</v>
+        <v>1.016464240729104</v>
       </c>
       <c r="K14">
-        <v>1.008323232042678</v>
+        <v>1.023014043863815</v>
       </c>
       <c r="L14">
-        <v>0.9952037918631524</v>
+        <v>1.011335565666846</v>
       </c>
       <c r="N14">
-        <v>0.9998865257262162</v>
+        <v>1.009595381727046</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.968341575105571</v>
+        <v>0.9868796865617104</v>
       </c>
       <c r="D15">
-        <v>0.9937602262133839</v>
+        <v>1.008502689554173</v>
       </c>
       <c r="E15">
-        <v>0.9804305592793544</v>
+        <v>0.9966288688743286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03239058904289</v>
+        <v>1.03994211226807</v>
       </c>
       <c r="J15">
-        <v>0.9989339041940424</v>
+        <v>1.016654197194616</v>
       </c>
       <c r="K15">
-        <v>1.008728194723335</v>
+        <v>1.023194972687358</v>
       </c>
       <c r="L15">
-        <v>0.9956571696616124</v>
+        <v>1.011542358136543</v>
       </c>
       <c r="N15">
-        <v>1.000352504917318</v>
+        <v>1.009657794047995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9723343109538606</v>
+        <v>0.9891790417495122</v>
       </c>
       <c r="D16">
-        <v>0.9966634055245426</v>
+        <v>1.010085285091767</v>
       </c>
       <c r="E16">
-        <v>0.9836318479236089</v>
+        <v>0.998375027727806</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033451641147847</v>
+        <v>1.040591927454242</v>
       </c>
       <c r="J16">
-        <v>1.001609809014745</v>
+        <v>1.0177504800985</v>
       </c>
       <c r="K16">
-        <v>1.011056309928848</v>
+        <v>1.024238653223838</v>
       </c>
       <c r="L16">
-        <v>0.9982654920621954</v>
+        <v>1.012736919443923</v>
       </c>
       <c r="N16">
-        <v>1.003032209829797</v>
+        <v>1.010018004113284</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9747982585676369</v>
+        <v>0.9906060132068099</v>
       </c>
       <c r="D17">
-        <v>0.9984567454702103</v>
+        <v>1.011068451116585</v>
       </c>
       <c r="E17">
-        <v>0.9856103903473468</v>
+        <v>0.9994608884668734</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034103219793508</v>
+        <v>1.040992070941999</v>
       </c>
       <c r="J17">
-        <v>1.003260578989174</v>
+        <v>1.018430037163216</v>
       </c>
       <c r="K17">
-        <v>1.012491887743782</v>
+        <v>1.02488515416992</v>
       </c>
       <c r="L17">
-        <v>0.9998755150357758</v>
+        <v>1.013478376868599</v>
       </c>
       <c r="N17">
-        <v>1.004685324086935</v>
+        <v>1.010241300861723</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9762213121467902</v>
+        <v>0.991432919375164</v>
       </c>
       <c r="D18">
-        <v>0.9994930822231567</v>
+        <v>1.011638528084133</v>
       </c>
       <c r="E18">
-        <v>0.9867541439099879</v>
+        <v>1.000090906265991</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034478362207887</v>
+        <v>1.041222806499259</v>
       </c>
       <c r="J18">
-        <v>1.004213757606463</v>
+        <v>1.018823533892219</v>
       </c>
       <c r="K18">
-        <v>1.013320571468761</v>
+        <v>1.025259344579767</v>
       </c>
       <c r="L18">
-        <v>1.000805503468458</v>
+        <v>1.013908070733854</v>
       </c>
       <c r="N18">
-        <v>1.005639856327193</v>
+        <v>1.01037060474112</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9767041865835361</v>
+        <v>0.9917139635935636</v>
       </c>
       <c r="D19">
-        <v>0.9998448314816567</v>
+        <v>1.011832340280099</v>
       </c>
       <c r="E19">
-        <v>0.9871424197265316</v>
+        <v>1.000305164226053</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034605454707392</v>
+        <v>1.041301032735688</v>
       </c>
       <c r="J19">
-        <v>1.004537152425999</v>
+        <v>1.018957222320231</v>
       </c>
       <c r="K19">
-        <v>1.013601686059821</v>
+        <v>1.025386445436169</v>
       </c>
       <c r="L19">
-        <v>1.001121087402922</v>
+        <v>1.014054117057872</v>
       </c>
       <c r="N19">
-        <v>1.005963710404466</v>
+        <v>1.010414535739757</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9745353723698094</v>
+        <v>0.9904534759699906</v>
       </c>
       <c r="D20">
-        <v>0.9982653459864097</v>
+        <v>1.010963318298976</v>
       </c>
       <c r="E20">
-        <v>0.9853991841733969</v>
+        <v>0.9993447334024944</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034033822528826</v>
+        <v>1.040949415278308</v>
       </c>
       <c r="J20">
-        <v>1.003084475921291</v>
+        <v>1.018357425767627</v>
       </c>
       <c r="K20">
-        <v>1.012338765926744</v>
+        <v>1.02481609191435</v>
       </c>
       <c r="L20">
-        <v>0.9997037237144818</v>
+        <v>1.013399114677562</v>
       </c>
       <c r="N20">
-        <v>1.004508970932496</v>
+        <v>1.010217440931997</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.967314786205732</v>
+        <v>0.9862910010126411</v>
       </c>
       <c r="D21">
-        <v>0.9930142227720365</v>
+        <v>1.008097839577243</v>
       </c>
       <c r="E21">
-        <v>0.9796082740106854</v>
+        <v>0.9961825107894221</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032116739483674</v>
+        <v>1.039774781320319</v>
       </c>
       <c r="J21">
-        <v>0.9982456062147671</v>
+        <v>1.016373286057983</v>
       </c>
       <c r="K21">
-        <v>1.008129162586437</v>
+        <v>1.02292740298751</v>
       </c>
       <c r="L21">
-        <v>0.9949865536341884</v>
+        <v>1.011236569406683</v>
       </c>
       <c r="N21">
-        <v>0.9996632294759635</v>
+        <v>1.009565497808444</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9626365295693896</v>
+        <v>0.9836226199143057</v>
       </c>
       <c r="D22">
-        <v>0.9896184587545397</v>
+        <v>1.006264462698256</v>
       </c>
       <c r="E22">
-        <v>0.9758668052645542</v>
+        <v>0.9941627909227752</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030864264479157</v>
+        <v>1.039011608735436</v>
       </c>
       <c r="J22">
-        <v>0.9951089777011181</v>
+        <v>1.015098850666135</v>
       </c>
       <c r="K22">
-        <v>1.00539842000989</v>
+        <v>1.021712832536738</v>
       </c>
       <c r="L22">
-        <v>0.9919319995851186</v>
+        <v>1.009850777795624</v>
       </c>
       <c r="N22">
-        <v>0.996522146590049</v>
+        <v>1.00914678887677</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9651302508368098</v>
+        <v>0.9850421598721411</v>
       </c>
       <c r="D23">
-        <v>0.9914278971917926</v>
+        <v>1.007239439735243</v>
       </c>
       <c r="E23">
-        <v>0.9778601502258251</v>
+        <v>0.9952365366762461</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031532839662014</v>
+        <v>1.039418548834983</v>
       </c>
       <c r="J23">
-        <v>0.9967810535660777</v>
+        <v>1.015777055708874</v>
       </c>
       <c r="K23">
-        <v>1.006854304677436</v>
+        <v>1.022359312202741</v>
       </c>
       <c r="L23">
-        <v>0.9935600209042019</v>
+        <v>1.010587938228186</v>
       </c>
       <c r="N23">
-        <v>0.9981965969945263</v>
+        <v>1.009369605445962</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9746542028610308</v>
+        <v>0.9905224177127483</v>
       </c>
       <c r="D24">
-        <v>0.9983518610410953</v>
+        <v>1.011010833749019</v>
       </c>
       <c r="E24">
-        <v>0.9854946508909375</v>
+        <v>0.9993972292041534</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034065195315963</v>
+        <v>1.040968697754347</v>
       </c>
       <c r="J24">
-        <v>1.003164079181548</v>
+        <v>1.018390244613673</v>
       </c>
       <c r="K24">
-        <v>1.012407981798228</v>
+        <v>1.024847307135622</v>
       </c>
       <c r="L24">
-        <v>0.9997813769032552</v>
+        <v>1.013434938448357</v>
       </c>
       <c r="N24">
-        <v>1.004588687238514</v>
+        <v>1.010228225112924</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9851565561312572</v>
+        <v>0.9966703403787681</v>
       </c>
       <c r="D25">
-        <v>1.006009476762607</v>
+        <v>1.015255010225064</v>
       </c>
       <c r="E25">
-        <v>0.9939532621486651</v>
+        <v>1.004094825918985</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03681230639313</v>
+        <v>1.042663453491398</v>
       </c>
       <c r="J25">
-        <v>1.01019399954021</v>
+        <v>1.021310282800097</v>
       </c>
       <c r="K25">
-        <v>1.018515214173344</v>
+        <v>1.027621039039071</v>
       </c>
       <c r="L25">
-        <v>1.006646176823623</v>
+        <v>1.016629905832827</v>
       </c>
       <c r="N25">
-        <v>1.011628590890428</v>
+        <v>1.011187825433235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001415086807556</v>
+        <v>1.022115658001729</v>
       </c>
       <c r="D2">
-        <v>1.018539451230848</v>
+        <v>1.027273437115517</v>
       </c>
       <c r="E2">
-        <v>1.007742927129379</v>
+        <v>1.022911517641687</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043934434999549</v>
+        <v>1.031662037948412</v>
       </c>
       <c r="J2">
-        <v>1.023553555094374</v>
+        <v>1.027303309300051</v>
       </c>
       <c r="K2">
-        <v>1.029746405688452</v>
+        <v>1.030093645979396</v>
       </c>
       <c r="L2">
-        <v>1.019095434436506</v>
+        <v>1.025744504756261</v>
       </c>
       <c r="N2">
-        <v>1.01192513320635</v>
+        <v>1.013192062822364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004773533948146</v>
+        <v>1.022820545736574</v>
       </c>
       <c r="D3">
-        <v>1.020868619329701</v>
+        <v>1.027777706988114</v>
       </c>
       <c r="E3">
-        <v>1.010337629899553</v>
+        <v>1.023503056282056</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044811915170326</v>
+        <v>1.031787925071001</v>
       </c>
       <c r="J3">
-        <v>1.025134908125519</v>
+        <v>1.027647379312717</v>
       </c>
       <c r="K3">
-        <v>1.031241267647143</v>
+        <v>1.030406427222679</v>
       </c>
       <c r="L3">
-        <v>1.020839925711605</v>
+        <v>1.026143397959211</v>
       </c>
       <c r="N3">
-        <v>1.012444940134689</v>
+        <v>1.013305175440048</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006908260780042</v>
+        <v>1.0232771354193</v>
       </c>
       <c r="D4">
-        <v>1.022350868288702</v>
+        <v>1.028104281836498</v>
       </c>
       <c r="E4">
-        <v>1.011992484952382</v>
+        <v>1.023886641224532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045359163398268</v>
+        <v>1.031868170550839</v>
       </c>
       <c r="J4">
-        <v>1.026136888276738</v>
+        <v>1.027869797007596</v>
       </c>
       <c r="K4">
-        <v>1.032186819171428</v>
+        <v>1.03060837936504</v>
       </c>
       <c r="L4">
-        <v>1.021948294274874</v>
+        <v>1.026401630347836</v>
       </c>
       <c r="N4">
-        <v>1.012774324254838</v>
+        <v>1.013378292950636</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007796741720581</v>
+        <v>1.023469198572965</v>
       </c>
       <c r="D5">
-        <v>1.022968171266043</v>
+        <v>1.028241638560583</v>
       </c>
       <c r="E5">
-        <v>1.012682554427814</v>
+        <v>1.024048094521317</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045584372413222</v>
+        <v>1.031901614693397</v>
       </c>
       <c r="J5">
-        <v>1.026553129433032</v>
+        <v>1.02796324768325</v>
       </c>
       <c r="K5">
-        <v>1.032579218969168</v>
+        <v>1.030693173720757</v>
       </c>
       <c r="L5">
-        <v>1.022409460992081</v>
+        <v>1.026510218874879</v>
       </c>
       <c r="N5">
-        <v>1.012911161645931</v>
+        <v>1.013409013390558</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00794540301362</v>
+        <v>1.02350145337795</v>
       </c>
       <c r="D6">
-        <v>1.023071480463904</v>
+        <v>1.028264705091632</v>
       </c>
       <c r="E6">
-        <v>1.012798093750782</v>
+        <v>1.024075214566434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045621903135518</v>
+        <v>1.031907213017467</v>
       </c>
       <c r="J6">
-        <v>1.02662272825808</v>
+        <v>1.027978935272132</v>
       </c>
       <c r="K6">
-        <v>1.032644807536326</v>
+        <v>1.03070740479018</v>
       </c>
       <c r="L6">
-        <v>1.022486614792617</v>
+        <v>1.026528452942059</v>
       </c>
       <c r="N6">
-        <v>1.012934042232596</v>
+        <v>1.013414170409031</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006920167596029</v>
+        <v>1.02327970133578</v>
       </c>
       <c r="D7">
-        <v>1.022359139488175</v>
+        <v>1.02810611695226</v>
       </c>
       <c r="E7">
-        <v>1.012001727645378</v>
+        <v>1.023888797811011</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045362191643114</v>
+        <v>1.031868618577924</v>
       </c>
       <c r="J7">
-        <v>1.026142469595267</v>
+        <v>1.027871045912942</v>
       </c>
       <c r="K7">
-        <v>1.032192082397417</v>
+        <v>1.030609512810932</v>
       </c>
       <c r="L7">
-        <v>1.021954475103054</v>
+        <v>1.026403081206411</v>
       </c>
       <c r="N7">
-        <v>1.012776159068308</v>
+        <v>1.013378703510607</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002558189650093</v>
+        <v>1.022353777421229</v>
       </c>
       <c r="D8">
-        <v>1.019331830374162</v>
+        <v>1.027443798597268</v>
       </c>
       <c r="E8">
-        <v>1.008624890698655</v>
+        <v>1.023111259873501</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044235275441157</v>
+        <v>1.031704832468662</v>
       </c>
       <c r="J8">
-        <v>1.024092443627207</v>
+        <v>1.027419633803284</v>
       </c>
       <c r="K8">
-        <v>1.030256155212195</v>
+        <v>1.030199441758152</v>
       </c>
       <c r="L8">
-        <v>1.01968928616518</v>
+        <v>1.025879286440023</v>
       </c>
       <c r="N8">
-        <v>1.012102266316078</v>
+        <v>1.013230304786373</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9945664736656488</v>
+        <v>1.020725951910421</v>
       </c>
       <c r="D9">
-        <v>1.013801099639633</v>
+        <v>1.026278931342891</v>
       </c>
       <c r="E9">
-        <v>1.002483615009206</v>
+        <v>1.021747510562603</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042089211808326</v>
+        <v>1.031406979503315</v>
       </c>
       <c r="J9">
-        <v>1.020312573645561</v>
+        <v>1.026622574956744</v>
       </c>
       <c r="K9">
-        <v>1.026674162829073</v>
+        <v>1.029473550043155</v>
       </c>
       <c r="L9">
-        <v>1.015536525402396</v>
+        <v>1.024957293693395</v>
       </c>
       <c r="N9">
-        <v>1.010859933783394</v>
+        <v>1.012968261719713</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9890170386505222</v>
+        <v>1.01964339594707</v>
       </c>
       <c r="D10">
-        <v>1.009973715550277</v>
+        <v>1.025503967944321</v>
       </c>
       <c r="E10">
-        <v>0.9982518577614995</v>
+        <v>1.020842753661685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040546345132545</v>
+        <v>1.031202252968525</v>
       </c>
       <c r="J10">
-        <v>1.017673290977273</v>
+        <v>1.026090200692033</v>
       </c>
       <c r="K10">
-        <v>1.024165196604415</v>
+        <v>1.02898749159129</v>
       </c>
       <c r="L10">
-        <v>1.012652747353926</v>
+        <v>1.024343396023542</v>
       </c>
       <c r="N10">
-        <v>1.009992640993013</v>
+        <v>1.012793227331794</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9865576468901235</v>
+        <v>1.019175295071619</v>
       </c>
       <c r="D11">
-        <v>1.008281200098264</v>
+        <v>1.025168808823156</v>
       </c>
       <c r="E11">
-        <v>0.9963846542499395</v>
+        <v>1.020452056347719</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039850621684591</v>
+        <v>1.031112155211243</v>
       </c>
       <c r="J11">
-        <v>1.016500536731052</v>
+        <v>1.025859456707868</v>
       </c>
       <c r="K11">
-        <v>1.023048616833842</v>
+        <v>1.028776535375593</v>
       </c>
       <c r="L11">
-        <v>1.011375074284635</v>
+        <v>1.024077772192803</v>
       </c>
       <c r="N11">
-        <v>1.009607307128572</v>
+        <v>1.012717360986333</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9856352902530426</v>
+        <v>1.019001521833355</v>
       </c>
       <c r="D12">
-        <v>1.007647055273968</v>
+        <v>1.025044378756467</v>
       </c>
       <c r="E12">
-        <v>0.9956856643206882</v>
+        <v>1.020307096658407</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039587950074133</v>
+        <v>1.03107847200322</v>
       </c>
       <c r="J12">
-        <v>1.016060282673712</v>
+        <v>1.025773716123834</v>
       </c>
       <c r="K12">
-        <v>1.02262920172094</v>
+        <v>1.028698104713994</v>
       </c>
       <c r="L12">
-        <v>1.010895989608447</v>
+        <v>1.023979138986662</v>
       </c>
       <c r="N12">
-        <v>1.009462659193702</v>
+        <v>1.01268917001149</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9858335442064685</v>
+        <v>1.019038792210758</v>
       </c>
       <c r="D13">
-        <v>1.007783331905195</v>
+        <v>1.025071066545958</v>
       </c>
       <c r="E13">
-        <v>0.9958358488771387</v>
+        <v>1.020338183606984</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039644487873781</v>
+        <v>1.031085706965475</v>
       </c>
       <c r="J13">
-        <v>1.016154931079924</v>
+        <v>1.025792109195204</v>
       </c>
       <c r="K13">
-        <v>1.022719381125261</v>
+        <v>1.028714931598091</v>
       </c>
       <c r="L13">
-        <v>1.010998960964716</v>
+        <v>1.024000294702005</v>
       </c>
       <c r="N13">
-        <v>1.009493756129318</v>
+        <v>1.012695217554008</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9864815867891688</v>
+        <v>1.019160928863577</v>
       </c>
       <c r="D14">
-        <v>1.008228894106946</v>
+        <v>1.025158522098755</v>
       </c>
       <c r="E14">
-        <v>0.9963269874046378</v>
+        <v>1.020440070603227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039828996408813</v>
+        <v>1.031109375365868</v>
       </c>
       <c r="J14">
-        <v>1.016464240729104</v>
+        <v>1.025852370008918</v>
       </c>
       <c r="K14">
-        <v>1.023014043863815</v>
+        <v>1.028770053735753</v>
       </c>
       <c r="L14">
-        <v>1.011335565666846</v>
+        <v>1.024069618493364</v>
       </c>
       <c r="N14">
-        <v>1.009595381727046</v>
+        <v>1.012715030929861</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9868796865617104</v>
+        <v>1.01923619463768</v>
       </c>
       <c r="D15">
-        <v>1.008502689554173</v>
+        <v>1.025212414755476</v>
       </c>
       <c r="E15">
-        <v>0.9966288688743286</v>
+        <v>1.020502868167085</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03994211226807</v>
+        <v>1.031123929536335</v>
       </c>
       <c r="J15">
-        <v>1.016654197194616</v>
+        <v>1.025889494487967</v>
       </c>
       <c r="K15">
-        <v>1.023194972687358</v>
+        <v>1.028804006789111</v>
       </c>
       <c r="L15">
-        <v>1.011542358136543</v>
+        <v>1.024112335365375</v>
       </c>
       <c r="N15">
-        <v>1.009657794047995</v>
+        <v>1.012727237182986</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9891790417495122</v>
+        <v>1.01967447620319</v>
       </c>
       <c r="D16">
-        <v>1.010085285091767</v>
+        <v>1.025526220065492</v>
       </c>
       <c r="E16">
-        <v>0.998375027727806</v>
+        <v>1.020868705651323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040591927454242</v>
+        <v>1.031208201993315</v>
       </c>
       <c r="J16">
-        <v>1.0177504800985</v>
+        <v>1.026105509845672</v>
       </c>
       <c r="K16">
-        <v>1.024238653223838</v>
+        <v>1.029001481866303</v>
       </c>
       <c r="L16">
-        <v>1.012736919443923</v>
+        <v>1.024361028906908</v>
       </c>
       <c r="N16">
-        <v>1.010018004113284</v>
+        <v>1.012798260785523</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9906060132068099</v>
+        <v>1.019949575004522</v>
       </c>
       <c r="D17">
-        <v>1.011068451116585</v>
+        <v>1.025723171789079</v>
       </c>
       <c r="E17">
-        <v>0.9994608884668734</v>
+        <v>1.021098473416854</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040992070941999</v>
+        <v>1.031260676378306</v>
       </c>
       <c r="J17">
-        <v>1.018430037163216</v>
+        <v>1.026240952029963</v>
       </c>
       <c r="K17">
-        <v>1.02488515416992</v>
+        <v>1.029125222677576</v>
       </c>
       <c r="L17">
-        <v>1.013478376868599</v>
+        <v>1.024517081896698</v>
       </c>
       <c r="N17">
-        <v>1.010241300861723</v>
+        <v>1.012842792191945</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.991432919375164</v>
+        <v>1.020110098341184</v>
       </c>
       <c r="D18">
-        <v>1.011638528084133</v>
+        <v>1.025838089348399</v>
       </c>
       <c r="E18">
-        <v>1.000090906265991</v>
+        <v>1.02123259600626</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041222806499259</v>
+        <v>1.031291143850731</v>
       </c>
       <c r="J18">
-        <v>1.018823533892219</v>
+        <v>1.02631993160971</v>
       </c>
       <c r="K18">
-        <v>1.025259344579767</v>
+        <v>1.02919735125401</v>
       </c>
       <c r="L18">
-        <v>1.013908070733854</v>
+        <v>1.024608123955476</v>
       </c>
       <c r="N18">
-        <v>1.01037060474112</v>
+        <v>1.012868759310594</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9917139635935636</v>
+        <v>1.020164843247016</v>
       </c>
       <c r="D19">
-        <v>1.011832340280099</v>
+        <v>1.025877279809617</v>
       </c>
       <c r="E19">
-        <v>1.000305164226053</v>
+        <v>1.021278345737207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041301032735688</v>
+        <v>1.031301508705491</v>
       </c>
       <c r="J19">
-        <v>1.018957222320231</v>
+        <v>1.026346857906032</v>
       </c>
       <c r="K19">
-        <v>1.025386445436169</v>
+        <v>1.029221937160117</v>
       </c>
       <c r="L19">
-        <v>1.014054117057872</v>
+        <v>1.024639170117759</v>
       </c>
       <c r="N19">
-        <v>1.010414535739757</v>
+        <v>1.012877612174726</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9904534759699906</v>
+        <v>1.01992005298913</v>
       </c>
       <c r="D20">
-        <v>1.010963318298976</v>
+        <v>1.025702036689129</v>
       </c>
       <c r="E20">
-        <v>0.9993447334024944</v>
+        <v>1.021073810846951</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040949415278308</v>
+        <v>1.031255060842243</v>
       </c>
       <c r="J20">
-        <v>1.018357425767627</v>
+        <v>1.026226422584672</v>
       </c>
       <c r="K20">
-        <v>1.02481609191435</v>
+        <v>1.029111951346342</v>
       </c>
       <c r="L20">
-        <v>1.013399114677562</v>
+        <v>1.024500336912157</v>
       </c>
       <c r="N20">
-        <v>1.010217440931997</v>
+        <v>1.012838015144832</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9862910010126411</v>
+        <v>1.019124959878221</v>
       </c>
       <c r="D21">
-        <v>1.008097839577243</v>
+        <v>1.025132766863683</v>
       </c>
       <c r="E21">
-        <v>0.9961825107894221</v>
+        <v>1.020410062913861</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039774781320319</v>
+        <v>1.031102411591622</v>
       </c>
       <c r="J21">
-        <v>1.016373286057983</v>
+        <v>1.025834625573052</v>
       </c>
       <c r="K21">
-        <v>1.02292740298751</v>
+        <v>1.028753823619688</v>
       </c>
       <c r="L21">
-        <v>1.011236569406683</v>
+        <v>1.024049203487662</v>
       </c>
       <c r="N21">
-        <v>1.009565497808444</v>
+        <v>1.012709196679816</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9836226199143057</v>
+        <v>1.018625634477147</v>
       </c>
       <c r="D22">
-        <v>1.006264462698256</v>
+        <v>1.02477520958866</v>
       </c>
       <c r="E22">
-        <v>0.9941627909227752</v>
+        <v>1.019993680583264</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039011608735436</v>
+        <v>1.031005180553325</v>
       </c>
       <c r="J22">
-        <v>1.015098850666135</v>
+        <v>1.025588102832205</v>
       </c>
       <c r="K22">
-        <v>1.021712832536738</v>
+        <v>1.02852823789101</v>
       </c>
       <c r="L22">
-        <v>1.009850777795624</v>
+        <v>1.023765739934414</v>
       </c>
       <c r="N22">
-        <v>1.00914678887677</v>
+        <v>1.012628140938286</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9850421598721411</v>
+        <v>1.018890280507571</v>
       </c>
       <c r="D23">
-        <v>1.007239439735243</v>
+        <v>1.024964722148683</v>
       </c>
       <c r="E23">
-        <v>0.9952365366762461</v>
+        <v>1.020214322687797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039418548834983</v>
+        <v>1.031056843158629</v>
       </c>
       <c r="J23">
-        <v>1.015777055708874</v>
+        <v>1.025718806207868</v>
       </c>
       <c r="K23">
-        <v>1.022359312202741</v>
+        <v>1.028647864163836</v>
       </c>
       <c r="L23">
-        <v>1.010587938228186</v>
+        <v>1.023915991556305</v>
       </c>
       <c r="N23">
-        <v>1.009369605445962</v>
+        <v>1.012671115882085</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9905224177127483</v>
+        <v>1.019933392523188</v>
       </c>
       <c r="D24">
-        <v>1.011010833749019</v>
+        <v>1.025711586610979</v>
       </c>
       <c r="E24">
-        <v>0.9993972292041534</v>
+        <v>1.021084954482937</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040968697754347</v>
+        <v>1.031257598693812</v>
       </c>
       <c r="J24">
-        <v>1.018390244613673</v>
+        <v>1.026232987882378</v>
       </c>
       <c r="K24">
-        <v>1.024847307135622</v>
+        <v>1.029117948236151</v>
       </c>
       <c r="L24">
-        <v>1.013434938448357</v>
+        <v>1.02450790319143</v>
       </c>
       <c r="N24">
-        <v>1.010228225112924</v>
+        <v>1.012840173709409</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9966703403787681</v>
+        <v>1.021146324000191</v>
       </c>
       <c r="D25">
-        <v>1.015255010225064</v>
+        <v>1.026579801640254</v>
       </c>
       <c r="E25">
-        <v>1.004094825918985</v>
+        <v>1.022099304421396</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042663453491398</v>
+        <v>1.031485071041037</v>
       </c>
       <c r="J25">
-        <v>1.021310282800097</v>
+        <v>1.026828816381276</v>
       </c>
       <c r="K25">
-        <v>1.027621039039071</v>
+        <v>1.029661592137894</v>
       </c>
       <c r="L25">
-        <v>1.016629905832827</v>
+        <v>1.025195522909045</v>
       </c>
       <c r="N25">
-        <v>1.011187825433235</v>
+        <v>1.013036067916457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022115658001729</v>
+        <v>1.001415086807555</v>
       </c>
       <c r="D2">
-        <v>1.027273437115517</v>
+        <v>1.018539451230848</v>
       </c>
       <c r="E2">
-        <v>1.022911517641687</v>
+        <v>1.007742927129379</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031662037948412</v>
+        <v>1.043934434999549</v>
       </c>
       <c r="J2">
-        <v>1.027303309300051</v>
+        <v>1.023553555094374</v>
       </c>
       <c r="K2">
-        <v>1.030093645979396</v>
+        <v>1.029746405688452</v>
       </c>
       <c r="L2">
-        <v>1.025744504756261</v>
+        <v>1.019095434436505</v>
       </c>
       <c r="N2">
-        <v>1.013192062822364</v>
+        <v>1.01192513320635</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022820545736574</v>
+        <v>1.004773533948146</v>
       </c>
       <c r="D3">
-        <v>1.027777706988114</v>
+        <v>1.0208686193297</v>
       </c>
       <c r="E3">
-        <v>1.023503056282056</v>
+        <v>1.010337629899552</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031787925071001</v>
+        <v>1.044811915170326</v>
       </c>
       <c r="J3">
-        <v>1.027647379312717</v>
+        <v>1.025134908125519</v>
       </c>
       <c r="K3">
-        <v>1.030406427222679</v>
+        <v>1.031241267647143</v>
       </c>
       <c r="L3">
-        <v>1.026143397959211</v>
+        <v>1.020839925711605</v>
       </c>
       <c r="N3">
-        <v>1.013305175440048</v>
+        <v>1.012444940134689</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0232771354193</v>
+        <v>1.006908260780041</v>
       </c>
       <c r="D4">
-        <v>1.028104281836498</v>
+        <v>1.022350868288701</v>
       </c>
       <c r="E4">
-        <v>1.023886641224532</v>
+        <v>1.011992484952381</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031868170550839</v>
+        <v>1.045359163398267</v>
       </c>
       <c r="J4">
-        <v>1.027869797007596</v>
+        <v>1.026136888276737</v>
       </c>
       <c r="K4">
-        <v>1.03060837936504</v>
+        <v>1.032186819171427</v>
       </c>
       <c r="L4">
-        <v>1.026401630347836</v>
+        <v>1.021948294274873</v>
       </c>
       <c r="N4">
-        <v>1.013378292950636</v>
+        <v>1.012774324254837</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023469198572965</v>
+        <v>1.007796741720581</v>
       </c>
       <c r="D5">
-        <v>1.028241638560583</v>
+        <v>1.022968171266043</v>
       </c>
       <c r="E5">
-        <v>1.024048094521317</v>
+        <v>1.012682554427814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031901614693397</v>
+        <v>1.045584372413222</v>
       </c>
       <c r="J5">
-        <v>1.02796324768325</v>
+        <v>1.026553129433032</v>
       </c>
       <c r="K5">
-        <v>1.030693173720757</v>
+        <v>1.032579218969167</v>
       </c>
       <c r="L5">
-        <v>1.026510218874879</v>
+        <v>1.022409460992081</v>
       </c>
       <c r="N5">
-        <v>1.013409013390558</v>
+        <v>1.012911161645931</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02350145337795</v>
+        <v>1.00794540301362</v>
       </c>
       <c r="D6">
-        <v>1.028264705091632</v>
+        <v>1.023071480463904</v>
       </c>
       <c r="E6">
-        <v>1.024075214566434</v>
+        <v>1.012798093750782</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031907213017467</v>
+        <v>1.045621903135518</v>
       </c>
       <c r="J6">
-        <v>1.027978935272132</v>
+        <v>1.026622728258079</v>
       </c>
       <c r="K6">
-        <v>1.03070740479018</v>
+        <v>1.032644807536326</v>
       </c>
       <c r="L6">
-        <v>1.026528452942059</v>
+        <v>1.022486614792617</v>
       </c>
       <c r="N6">
-        <v>1.013414170409031</v>
+        <v>1.012934042232596</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02327970133578</v>
+        <v>1.006920167596029</v>
       </c>
       <c r="D7">
-        <v>1.02810611695226</v>
+        <v>1.022359139488176</v>
       </c>
       <c r="E7">
-        <v>1.023888797811011</v>
+        <v>1.012001727645378</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031868618577924</v>
+        <v>1.045362191643114</v>
       </c>
       <c r="J7">
-        <v>1.027871045912942</v>
+        <v>1.026142469595267</v>
       </c>
       <c r="K7">
-        <v>1.030609512810932</v>
+        <v>1.032192082397418</v>
       </c>
       <c r="L7">
-        <v>1.026403081206411</v>
+        <v>1.021954475103055</v>
       </c>
       <c r="N7">
-        <v>1.013378703510607</v>
+        <v>1.012776159068308</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022353777421229</v>
+        <v>1.002558189650093</v>
       </c>
       <c r="D8">
-        <v>1.027443798597268</v>
+        <v>1.019331830374162</v>
       </c>
       <c r="E8">
-        <v>1.023111259873501</v>
+        <v>1.008624890698655</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031704832468662</v>
+        <v>1.044235275441157</v>
       </c>
       <c r="J8">
-        <v>1.027419633803284</v>
+        <v>1.024092443627207</v>
       </c>
       <c r="K8">
-        <v>1.030199441758152</v>
+        <v>1.030256155212196</v>
       </c>
       <c r="L8">
-        <v>1.025879286440023</v>
+        <v>1.01968928616518</v>
       </c>
       <c r="N8">
-        <v>1.013230304786373</v>
+        <v>1.012102266316078</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020725951910421</v>
+        <v>0.9945664736656485</v>
       </c>
       <c r="D9">
-        <v>1.026278931342891</v>
+        <v>1.013801099639632</v>
       </c>
       <c r="E9">
-        <v>1.021747510562603</v>
+        <v>1.002483615009206</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031406979503315</v>
+        <v>1.042089211808326</v>
       </c>
       <c r="J9">
-        <v>1.026622574956744</v>
+        <v>1.02031257364556</v>
       </c>
       <c r="K9">
-        <v>1.029473550043155</v>
+        <v>1.026674162829073</v>
       </c>
       <c r="L9">
-        <v>1.024957293693395</v>
+        <v>1.015536525402396</v>
       </c>
       <c r="N9">
-        <v>1.012968261719713</v>
+        <v>1.010859933783393</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01964339594707</v>
+        <v>0.9890170386505228</v>
       </c>
       <c r="D10">
-        <v>1.025503967944321</v>
+        <v>1.009973715550278</v>
       </c>
       <c r="E10">
-        <v>1.020842753661685</v>
+        <v>0.9982518577615004</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031202252968525</v>
+        <v>1.040546345132546</v>
       </c>
       <c r="J10">
-        <v>1.026090200692033</v>
+        <v>1.017673290977274</v>
       </c>
       <c r="K10">
-        <v>1.02898749159129</v>
+        <v>1.024165196604416</v>
       </c>
       <c r="L10">
-        <v>1.024343396023542</v>
+        <v>1.012652747353927</v>
       </c>
       <c r="N10">
-        <v>1.012793227331794</v>
+        <v>1.009992640993013</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019175295071619</v>
+        <v>0.9865576468901229</v>
       </c>
       <c r="D11">
-        <v>1.025168808823156</v>
+        <v>1.008281200098263</v>
       </c>
       <c r="E11">
-        <v>1.020452056347719</v>
+        <v>0.9963846542499388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031112155211243</v>
+        <v>1.03985062168459</v>
       </c>
       <c r="J11">
-        <v>1.025859456707868</v>
+        <v>1.016500536731051</v>
       </c>
       <c r="K11">
-        <v>1.028776535375593</v>
+        <v>1.023048616833842</v>
       </c>
       <c r="L11">
-        <v>1.024077772192803</v>
+        <v>1.011375074284635</v>
       </c>
       <c r="N11">
-        <v>1.012717360986333</v>
+        <v>1.009607307128572</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019001521833355</v>
+        <v>0.9856352902530425</v>
       </c>
       <c r="D12">
-        <v>1.025044378756467</v>
+        <v>1.007647055273968</v>
       </c>
       <c r="E12">
-        <v>1.020307096658407</v>
+        <v>0.9956856643206881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03107847200322</v>
+        <v>1.039587950074133</v>
       </c>
       <c r="J12">
-        <v>1.025773716123834</v>
+        <v>1.016060282673712</v>
       </c>
       <c r="K12">
-        <v>1.028698104713994</v>
+        <v>1.02262920172094</v>
       </c>
       <c r="L12">
-        <v>1.023979138986662</v>
+        <v>1.010895989608447</v>
       </c>
       <c r="N12">
-        <v>1.01268917001149</v>
+        <v>1.009462659193702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019038792210758</v>
+        <v>0.9858335442064686</v>
       </c>
       <c r="D13">
-        <v>1.025071066545958</v>
+        <v>1.007783331905195</v>
       </c>
       <c r="E13">
-        <v>1.020338183606984</v>
+        <v>0.9958358488771387</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031085706965475</v>
+        <v>1.039644487873781</v>
       </c>
       <c r="J13">
-        <v>1.025792109195204</v>
+        <v>1.016154931079924</v>
       </c>
       <c r="K13">
-        <v>1.028714931598091</v>
+        <v>1.022719381125261</v>
       </c>
       <c r="L13">
-        <v>1.024000294702005</v>
+        <v>1.010998960964716</v>
       </c>
       <c r="N13">
-        <v>1.012695217554008</v>
+        <v>1.009493756129318</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019160928863577</v>
+        <v>0.9864815867891688</v>
       </c>
       <c r="D14">
-        <v>1.025158522098755</v>
+        <v>1.008228894106946</v>
       </c>
       <c r="E14">
-        <v>1.020440070603227</v>
+        <v>0.9963269874046379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031109375365868</v>
+        <v>1.039828996408812</v>
       </c>
       <c r="J14">
-        <v>1.025852370008918</v>
+        <v>1.016464240729104</v>
       </c>
       <c r="K14">
-        <v>1.028770053735753</v>
+        <v>1.023014043863815</v>
       </c>
       <c r="L14">
-        <v>1.024069618493364</v>
+        <v>1.011335565666846</v>
       </c>
       <c r="N14">
-        <v>1.012715030929861</v>
+        <v>1.009595381727047</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01923619463768</v>
+        <v>0.98687968656171</v>
       </c>
       <c r="D15">
-        <v>1.025212414755476</v>
+        <v>1.008502689554173</v>
       </c>
       <c r="E15">
-        <v>1.020502868167085</v>
+        <v>0.9966288688743282</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031123929536335</v>
+        <v>1.039942112268071</v>
       </c>
       <c r="J15">
-        <v>1.025889494487967</v>
+        <v>1.016654197194615</v>
       </c>
       <c r="K15">
-        <v>1.028804006789111</v>
+        <v>1.023194972687358</v>
       </c>
       <c r="L15">
-        <v>1.024112335365375</v>
+        <v>1.011542358136543</v>
       </c>
       <c r="N15">
-        <v>1.012727237182986</v>
+        <v>1.009657794047995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01967447620319</v>
+        <v>0.9891790417495118</v>
       </c>
       <c r="D16">
-        <v>1.025526220065492</v>
+        <v>1.010085285091767</v>
       </c>
       <c r="E16">
-        <v>1.020868705651323</v>
+        <v>0.9983750277278057</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031208201993315</v>
+        <v>1.040591927454242</v>
       </c>
       <c r="J16">
-        <v>1.026105509845672</v>
+        <v>1.0177504800985</v>
       </c>
       <c r="K16">
-        <v>1.029001481866303</v>
+        <v>1.024238653223837</v>
       </c>
       <c r="L16">
-        <v>1.024361028906908</v>
+        <v>1.012736919443922</v>
       </c>
       <c r="N16">
-        <v>1.012798260785523</v>
+        <v>1.010018004113284</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019949575004522</v>
+        <v>0.9906060132068104</v>
       </c>
       <c r="D17">
-        <v>1.025723171789079</v>
+        <v>1.011068451116586</v>
       </c>
       <c r="E17">
-        <v>1.021098473416854</v>
+        <v>0.9994608884668736</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031260676378306</v>
+        <v>1.040992070941999</v>
       </c>
       <c r="J17">
-        <v>1.026240952029963</v>
+        <v>1.018430037163216</v>
       </c>
       <c r="K17">
-        <v>1.029125222677576</v>
+        <v>1.02488515416992</v>
       </c>
       <c r="L17">
-        <v>1.024517081896698</v>
+        <v>1.013478376868599</v>
       </c>
       <c r="N17">
-        <v>1.012842792191945</v>
+        <v>1.010241300861723</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020110098341184</v>
+        <v>0.9914329193751638</v>
       </c>
       <c r="D18">
-        <v>1.025838089348399</v>
+        <v>1.011638528084132</v>
       </c>
       <c r="E18">
-        <v>1.02123259600626</v>
+        <v>1.000090906265991</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031291143850731</v>
+        <v>1.041222806499258</v>
       </c>
       <c r="J18">
-        <v>1.02631993160971</v>
+        <v>1.018823533892219</v>
       </c>
       <c r="K18">
-        <v>1.02919735125401</v>
+        <v>1.025259344579766</v>
       </c>
       <c r="L18">
-        <v>1.024608123955476</v>
+        <v>1.013908070733854</v>
       </c>
       <c r="N18">
-        <v>1.012868759310594</v>
+        <v>1.01037060474112</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020164843247016</v>
+        <v>0.9917139635935625</v>
       </c>
       <c r="D19">
-        <v>1.025877279809617</v>
+        <v>1.011832340280098</v>
       </c>
       <c r="E19">
-        <v>1.021278345737207</v>
+        <v>1.000305164226052</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031301508705491</v>
+        <v>1.041301032735687</v>
       </c>
       <c r="J19">
-        <v>1.026346857906032</v>
+        <v>1.018957222320231</v>
       </c>
       <c r="K19">
-        <v>1.029221937160117</v>
+        <v>1.025386445436168</v>
       </c>
       <c r="L19">
-        <v>1.024639170117759</v>
+        <v>1.014054117057871</v>
       </c>
       <c r="N19">
-        <v>1.012877612174726</v>
+        <v>1.010414535739757</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01992005298913</v>
+        <v>0.9904534759699904</v>
       </c>
       <c r="D20">
-        <v>1.025702036689129</v>
+        <v>1.010963318298976</v>
       </c>
       <c r="E20">
-        <v>1.021073810846951</v>
+        <v>0.9993447334024944</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031255060842243</v>
+        <v>1.040949415278308</v>
       </c>
       <c r="J20">
-        <v>1.026226422584672</v>
+        <v>1.018357425767627</v>
       </c>
       <c r="K20">
-        <v>1.029111951346342</v>
+        <v>1.02481609191435</v>
       </c>
       <c r="L20">
-        <v>1.024500336912157</v>
+        <v>1.013399114677562</v>
       </c>
       <c r="N20">
-        <v>1.012838015144832</v>
+        <v>1.010217440931997</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019124959878221</v>
+        <v>0.9862910010126407</v>
       </c>
       <c r="D21">
-        <v>1.025132766863683</v>
+        <v>1.008097839577243</v>
       </c>
       <c r="E21">
-        <v>1.020410062913861</v>
+        <v>0.9961825107894215</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031102411591622</v>
+        <v>1.039774781320319</v>
       </c>
       <c r="J21">
-        <v>1.025834625573052</v>
+        <v>1.016373286057982</v>
       </c>
       <c r="K21">
-        <v>1.028753823619688</v>
+        <v>1.022927402987509</v>
       </c>
       <c r="L21">
-        <v>1.024049203487662</v>
+        <v>1.011236569406683</v>
       </c>
       <c r="N21">
-        <v>1.012709196679816</v>
+        <v>1.009565497808443</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018625634477147</v>
+        <v>0.9836226199143059</v>
       </c>
       <c r="D22">
-        <v>1.02477520958866</v>
+        <v>1.006264462698256</v>
       </c>
       <c r="E22">
-        <v>1.019993680583264</v>
+        <v>0.9941627909227755</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031005180553325</v>
+        <v>1.039011608735436</v>
       </c>
       <c r="J22">
-        <v>1.025588102832205</v>
+        <v>1.015098850666135</v>
       </c>
       <c r="K22">
-        <v>1.02852823789101</v>
+        <v>1.021712832536739</v>
       </c>
       <c r="L22">
-        <v>1.023765739934414</v>
+        <v>1.009850777795624</v>
       </c>
       <c r="N22">
-        <v>1.012628140938286</v>
+        <v>1.00914678887677</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018890280507571</v>
+        <v>0.9850421598721402</v>
       </c>
       <c r="D23">
-        <v>1.024964722148683</v>
+        <v>1.007239439735242</v>
       </c>
       <c r="E23">
-        <v>1.020214322687797</v>
+        <v>0.9952365366762452</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031056843158629</v>
+        <v>1.039418548834982</v>
       </c>
       <c r="J23">
-        <v>1.025718806207868</v>
+        <v>1.015777055708873</v>
       </c>
       <c r="K23">
-        <v>1.028647864163836</v>
+        <v>1.022359312202741</v>
       </c>
       <c r="L23">
-        <v>1.023915991556305</v>
+        <v>1.010587938228185</v>
       </c>
       <c r="N23">
-        <v>1.012671115882085</v>
+        <v>1.009369605445962</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019933392523188</v>
+        <v>0.990522417712748</v>
       </c>
       <c r="D24">
-        <v>1.025711586610979</v>
+        <v>1.011010833749019</v>
       </c>
       <c r="E24">
-        <v>1.021084954482937</v>
+        <v>0.9993972292041532</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031257598693812</v>
+        <v>1.040968697754347</v>
       </c>
       <c r="J24">
-        <v>1.026232987882378</v>
+        <v>1.018390244613672</v>
       </c>
       <c r="K24">
-        <v>1.029117948236151</v>
+        <v>1.024847307135622</v>
       </c>
       <c r="L24">
-        <v>1.02450790319143</v>
+        <v>1.013434938448357</v>
       </c>
       <c r="N24">
-        <v>1.012840173709409</v>
+        <v>1.010228225112924</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.021146324000191</v>
+        <v>0.9966703403787679</v>
       </c>
       <c r="D25">
-        <v>1.026579801640254</v>
+        <v>1.015255010225064</v>
       </c>
       <c r="E25">
-        <v>1.022099304421396</v>
+        <v>1.004094825918984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031485071041037</v>
+        <v>1.042663453491398</v>
       </c>
       <c r="J25">
-        <v>1.026828816381276</v>
+        <v>1.021310282800097</v>
       </c>
       <c r="K25">
-        <v>1.029661592137894</v>
+        <v>1.027621039039071</v>
       </c>
       <c r="L25">
-        <v>1.025195522909045</v>
+        <v>1.016629905832827</v>
       </c>
       <c r="N25">
-        <v>1.013036067916457</v>
+        <v>1.011187825433235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001415086807555</v>
+        <v>1.002845661109816</v>
       </c>
       <c r="D2">
-        <v>1.018539451230848</v>
+        <v>1.021610587078818</v>
       </c>
       <c r="E2">
-        <v>1.007742927129379</v>
+        <v>1.008965102664857</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043934434999549</v>
+        <v>1.042643369515094</v>
       </c>
       <c r="J2">
-        <v>1.023553555094374</v>
+        <v>1.024941590803464</v>
       </c>
       <c r="K2">
-        <v>1.029746405688452</v>
+        <v>1.032776843176386</v>
       </c>
       <c r="L2">
-        <v>1.019095434436505</v>
+        <v>1.020300936482983</v>
       </c>
       <c r="N2">
-        <v>1.01192513320635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012340543898715</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034246285804805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004773533948146</v>
+        <v>1.005944067331699</v>
       </c>
       <c r="D3">
-        <v>1.0208686193297</v>
+        <v>1.023572653562669</v>
       </c>
       <c r="E3">
-        <v>1.010337629899552</v>
+        <v>1.011338323847849</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044811915170326</v>
+        <v>1.043207719264188</v>
       </c>
       <c r="J3">
-        <v>1.025134908125519</v>
+        <v>1.026273992307919</v>
       </c>
       <c r="K3">
-        <v>1.031241267647143</v>
+        <v>1.033912546913233</v>
       </c>
       <c r="L3">
-        <v>1.020839925711605</v>
+        <v>1.021828155460988</v>
       </c>
       <c r="N3">
-        <v>1.012444940134689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012783070248174</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035046653672345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006908260780041</v>
+        <v>1.007918023684863</v>
       </c>
       <c r="D4">
-        <v>1.022350868288701</v>
+        <v>1.02482670691627</v>
       </c>
       <c r="E4">
-        <v>1.011992484952381</v>
+        <v>1.012855986964398</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045359163398267</v>
+        <v>1.043560027053661</v>
       </c>
       <c r="J4">
-        <v>1.026136888276737</v>
+        <v>1.027121331606549</v>
       </c>
       <c r="K4">
-        <v>1.032186819171427</v>
+        <v>1.03463445196783</v>
       </c>
       <c r="L4">
-        <v>1.021948294274873</v>
+        <v>1.022801688714883</v>
       </c>
       <c r="N4">
-        <v>1.012774324254837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013064542377111</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035558008274588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007796741720581</v>
+        <v>1.008743001838728</v>
       </c>
       <c r="D5">
-        <v>1.022968171266043</v>
+        <v>1.025353866247952</v>
       </c>
       <c r="E5">
-        <v>1.012682554427814</v>
+        <v>1.013491884739442</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045584372413222</v>
+        <v>1.043706821466955</v>
       </c>
       <c r="J5">
-        <v>1.026553129433032</v>
+        <v>1.027476361620783</v>
       </c>
       <c r="K5">
-        <v>1.032579218969167</v>
+        <v>1.034938449457805</v>
       </c>
       <c r="L5">
-        <v>1.022409460992081</v>
+        <v>1.023209569758779</v>
       </c>
       <c r="N5">
-        <v>1.012911161645931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013182643146952</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03578017339157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00794540301362</v>
+        <v>1.008883955945498</v>
       </c>
       <c r="D6">
-        <v>1.023071480463904</v>
+        <v>1.025446548247093</v>
       </c>
       <c r="E6">
-        <v>1.012798093750782</v>
+        <v>1.013600938515012</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045621903135518</v>
+        <v>1.043733398785171</v>
       </c>
       <c r="J6">
-        <v>1.026622728258079</v>
+        <v>1.027538556574269</v>
       </c>
       <c r="K6">
-        <v>1.032644807536326</v>
+        <v>1.034993647757169</v>
       </c>
       <c r="L6">
-        <v>1.022486614792617</v>
+        <v>1.023280353705011</v>
       </c>
       <c r="N6">
-        <v>1.012934042232596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013203520697329</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035827997874844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006920167596029</v>
+        <v>1.007936730888053</v>
       </c>
       <c r="D7">
-        <v>1.022359139488176</v>
+        <v>1.02484549336495</v>
       </c>
       <c r="E7">
-        <v>1.012001727645378</v>
+        <v>1.012871279646988</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045362191643114</v>
+        <v>1.043567645395365</v>
       </c>
       <c r="J7">
-        <v>1.026142469595267</v>
+        <v>1.02713355315188</v>
       </c>
       <c r="K7">
-        <v>1.032192082397418</v>
+        <v>1.034650121032409</v>
       </c>
       <c r="L7">
-        <v>1.021954475103055</v>
+        <v>1.022813852430627</v>
       </c>
       <c r="N7">
-        <v>1.012776159068308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013069116965934</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035589313294302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002558189650093</v>
+        <v>1.003908766503074</v>
       </c>
       <c r="D8">
-        <v>1.019331830374162</v>
+        <v>1.022291356003986</v>
       </c>
       <c r="E8">
-        <v>1.008624890698655</v>
+        <v>1.009779314426756</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044235275441157</v>
+        <v>1.042843727321151</v>
       </c>
       <c r="J8">
-        <v>1.024092443627207</v>
+        <v>1.025404188166944</v>
       </c>
       <c r="K8">
-        <v>1.030256155212196</v>
+        <v>1.033177610755478</v>
       </c>
       <c r="L8">
-        <v>1.01968928616518</v>
+        <v>1.020828428260292</v>
       </c>
       <c r="N8">
-        <v>1.012102266316078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012494834248263</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03455270138234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9945664736656485</v>
+        <v>0.9965534934278805</v>
       </c>
       <c r="D9">
-        <v>1.013801099639632</v>
+        <v>1.017649778393307</v>
       </c>
       <c r="E9">
-        <v>1.002483615009206</v>
+        <v>1.004177980911952</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042089211808326</v>
+        <v>1.04145917628474</v>
       </c>
       <c r="J9">
-        <v>1.02031257364556</v>
+        <v>1.022228546517716</v>
       </c>
       <c r="K9">
-        <v>1.026674162829073</v>
+        <v>1.030462846481931</v>
       </c>
       <c r="L9">
-        <v>1.015536525402396</v>
+        <v>1.017203635036173</v>
       </c>
       <c r="N9">
-        <v>1.010859933783393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011439825134393</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032629975502428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9890170386505228</v>
+        <v>0.9914750035781238</v>
       </c>
       <c r="D10">
-        <v>1.009973715550278</v>
+        <v>1.014471678302285</v>
       </c>
       <c r="E10">
-        <v>0.9982518577615004</v>
+        <v>1.000343786087798</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040546345132546</v>
+        <v>1.04046843654041</v>
       </c>
       <c r="J10">
-        <v>1.017673290977274</v>
+        <v>1.020030986029122</v>
       </c>
       <c r="K10">
-        <v>1.024165196604416</v>
+        <v>1.028584467354861</v>
       </c>
       <c r="L10">
-        <v>1.012652747353927</v>
+        <v>1.014706836143699</v>
       </c>
       <c r="N10">
-        <v>1.009992640993013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010710287275536</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031318739343008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9865576468901229</v>
+        <v>0.9892403316519348</v>
       </c>
       <c r="D11">
-        <v>1.008281200098263</v>
+        <v>1.013087531222318</v>
       </c>
       <c r="E11">
-        <v>0.9963846542499388</v>
+        <v>0.9986660845558027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03985062168459</v>
+        <v>1.040029169130926</v>
       </c>
       <c r="J11">
-        <v>1.016500536731051</v>
+        <v>1.0190676785532</v>
       </c>
       <c r="K11">
-        <v>1.023048616833842</v>
+        <v>1.027766785472203</v>
       </c>
       <c r="L11">
-        <v>1.011375074284635</v>
+        <v>1.013613200487205</v>
       </c>
       <c r="N11">
-        <v>1.009607307128572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010391325656256</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030773624401439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9856352902530425</v>
+        <v>0.9883980836129264</v>
       </c>
       <c r="D12">
-        <v>1.007647055273968</v>
+        <v>1.012562290322541</v>
       </c>
       <c r="E12">
-        <v>0.9956856643206881</v>
+        <v>0.9980343248059257</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039587950074133</v>
+        <v>1.039859671854697</v>
       </c>
       <c r="J12">
-        <v>1.016060282673712</v>
+        <v>1.018701705019628</v>
       </c>
       <c r="K12">
-        <v>1.02262920172094</v>
+        <v>1.027452710242218</v>
       </c>
       <c r="L12">
-        <v>1.010895989608447</v>
+        <v>1.013199281193833</v>
       </c>
       <c r="N12">
-        <v>1.009462659193702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010269755768444</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030551560657921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9858335442064686</v>
+        <v>0.9885780509375831</v>
       </c>
       <c r="D13">
-        <v>1.007783331905195</v>
+        <v>1.012673595235656</v>
       </c>
       <c r="E13">
-        <v>0.9958358488771387</v>
+        <v>0.9981691192350737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039644487873781</v>
+        <v>1.039895413740981</v>
       </c>
       <c r="J13">
-        <v>1.016154931079924</v>
+        <v>1.018779378517534</v>
       </c>
       <c r="K13">
-        <v>1.022719381125261</v>
+        <v>1.027518718854391</v>
       </c>
       <c r="L13">
-        <v>1.010998960964716</v>
+        <v>1.013287328165383</v>
       </c>
       <c r="N13">
-        <v>1.009493756129318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010295476710246</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030595723842901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9864815867891688</v>
+        <v>0.989170420365614</v>
       </c>
       <c r="D14">
-        <v>1.008228894106946</v>
+        <v>1.013043536195088</v>
       </c>
       <c r="E14">
-        <v>0.9963269874046379</v>
+        <v>0.9986135595991068</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039828996408812</v>
+        <v>1.040014897864928</v>
       </c>
       <c r="J14">
-        <v>1.016464240729104</v>
+        <v>1.019037076003188</v>
       </c>
       <c r="K14">
-        <v>1.023014043863815</v>
+        <v>1.027740244465329</v>
       </c>
       <c r="L14">
-        <v>1.011335565666846</v>
+        <v>1.013578672859327</v>
       </c>
       <c r="N14">
-        <v>1.009595381727047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010381125611413</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030753784573658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.98687968656171</v>
+        <v>0.9895364849965115</v>
       </c>
       <c r="D15">
-        <v>1.008502689554173</v>
+        <v>1.013274032430058</v>
       </c>
       <c r="E15">
-        <v>0.9966288688743282</v>
+        <v>0.9988886534482059</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039942112268071</v>
+        <v>1.040089630129141</v>
       </c>
       <c r="J15">
-        <v>1.016654197194615</v>
+        <v>1.019197363993517</v>
       </c>
       <c r="K15">
-        <v>1.023194972687358</v>
+        <v>1.027879325792216</v>
       </c>
       <c r="L15">
-        <v>1.011542358136543</v>
+        <v>1.013759514261931</v>
       </c>
       <c r="N15">
-        <v>1.009657794047995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010434559193848</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030858027559457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9891790417495118</v>
+        <v>0.9916398534140269</v>
       </c>
       <c r="D16">
-        <v>1.010085285091767</v>
+        <v>1.014589223074229</v>
       </c>
       <c r="E16">
-        <v>0.9983750277278057</v>
+        <v>1.000470096062728</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040591927454242</v>
+        <v>1.040509883145976</v>
       </c>
       <c r="J16">
-        <v>1.0177504800985</v>
+        <v>1.020111274922294</v>
       </c>
       <c r="K16">
-        <v>1.024238653223837</v>
+        <v>1.028664048553014</v>
       </c>
       <c r="L16">
-        <v>1.012736919443922</v>
+        <v>1.014794215160116</v>
       </c>
       <c r="N16">
-        <v>1.010018004113284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010738240875129</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031416049459875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9906060132068104</v>
+        <v>0.9929469041303247</v>
       </c>
       <c r="D17">
-        <v>1.011068451116586</v>
+        <v>1.015408127989825</v>
       </c>
       <c r="E17">
-        <v>0.9994608884668736</v>
+        <v>1.001455008141171</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040992070941999</v>
+        <v>1.040768841853565</v>
       </c>
       <c r="J17">
-        <v>1.018430037163216</v>
+        <v>1.02067884686415</v>
       </c>
       <c r="K17">
-        <v>1.02488515416992</v>
+        <v>1.029151284863283</v>
       </c>
       <c r="L17">
-        <v>1.013478376868599</v>
+        <v>1.015437573800142</v>
       </c>
       <c r="N17">
-        <v>1.010241300861723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010926854667736</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031763152575101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9914329193751638</v>
+        <v>0.9936995267496449</v>
       </c>
       <c r="D18">
-        <v>1.011638528084132</v>
+        <v>1.015875537335693</v>
       </c>
       <c r="E18">
-        <v>1.000090906265991</v>
+        <v>1.002022198271843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041222806499258</v>
+        <v>1.040914315276181</v>
       </c>
       <c r="J18">
-        <v>1.018823533892219</v>
+        <v>1.021002689806316</v>
       </c>
       <c r="K18">
-        <v>1.025259344579766</v>
+        <v>1.029425751726089</v>
       </c>
       <c r="L18">
-        <v>1.013908070733854</v>
+        <v>1.015806116996748</v>
       </c>
       <c r="N18">
-        <v>1.01037060474112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011034067894051</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031945505219733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9917139635935625</v>
+        <v>0.9939595901570911</v>
       </c>
       <c r="D19">
-        <v>1.011832340280098</v>
+        <v>1.016040798254864</v>
       </c>
       <c r="E19">
-        <v>1.000305164226052</v>
+        <v>1.002218870763105</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041301032735687</v>
+        <v>1.04096665940688</v>
       </c>
       <c r="J19">
-        <v>1.018957222320231</v>
+        <v>1.021116780907637</v>
       </c>
       <c r="K19">
-        <v>1.025386445436168</v>
+        <v>1.029525183881157</v>
       </c>
       <c r="L19">
-        <v>1.014054117057871</v>
+        <v>1.015935074775888</v>
       </c>
       <c r="N19">
-        <v>1.010414535739757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011072162827782</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032022239089627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9904534759699904</v>
+        <v>0.9928067039311933</v>
       </c>
       <c r="D20">
-        <v>1.010963318298976</v>
+        <v>1.015319863820228</v>
       </c>
       <c r="E20">
-        <v>0.9993447334024944</v>
+        <v>1.001349225463263</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040949415278308</v>
+        <v>1.040740926912039</v>
       </c>
       <c r="J20">
-        <v>1.018357425767627</v>
+        <v>1.020617759183784</v>
       </c>
       <c r="K20">
-        <v>1.02481609191435</v>
+        <v>1.029098576677374</v>
       </c>
       <c r="L20">
-        <v>1.013399114677562</v>
+        <v>1.015368391784481</v>
       </c>
       <c r="N20">
-        <v>1.010217440931997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010906521487779</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031724541916115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9862910010126407</v>
+        <v>0.989001917925609</v>
       </c>
       <c r="D21">
-        <v>1.008097839577243</v>
+        <v>1.012943230695864</v>
       </c>
       <c r="E21">
-        <v>0.9961825107894215</v>
+        <v>0.9984878809009744</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039774781320319</v>
+        <v>1.039983919369233</v>
       </c>
       <c r="J21">
-        <v>1.016373286057982</v>
+        <v>1.018966771467488</v>
       </c>
       <c r="K21">
-        <v>1.022927402987509</v>
+        <v>1.027683469748557</v>
       </c>
       <c r="L21">
-        <v>1.011236569406683</v>
+        <v>1.013497957582574</v>
       </c>
       <c r="N21">
-        <v>1.009565497808443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010358208054003</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030727234711792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9836226199143059</v>
+        <v>0.9865613906268966</v>
       </c>
       <c r="D22">
-        <v>1.006264462698256</v>
+        <v>1.011418091022678</v>
       </c>
       <c r="E22">
-        <v>0.9941627909227755</v>
+        <v>0.9966589122151729</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039011608735436</v>
+        <v>1.039487475853106</v>
       </c>
       <c r="J22">
-        <v>1.015098850666135</v>
+        <v>1.01790296325615</v>
       </c>
       <c r="K22">
-        <v>1.021712832536739</v>
+        <v>1.02676669684197</v>
       </c>
       <c r="L22">
-        <v>1.009850777795624</v>
+        <v>1.012296848546647</v>
       </c>
       <c r="N22">
-        <v>1.00914678887677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010004393664113</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030065446040619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9850421598721402</v>
+        <v>0.9878522864974081</v>
       </c>
       <c r="D23">
-        <v>1.007239439735242</v>
+        <v>1.012218348164729</v>
       </c>
       <c r="E23">
-        <v>0.9952365366762452</v>
+        <v>0.9976246829110123</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039418548834982</v>
+        <v>1.039747179023508</v>
       </c>
       <c r="J23">
-        <v>1.015777055708873</v>
+        <v>1.018462170449726</v>
       </c>
       <c r="K23">
-        <v>1.022359312202741</v>
+        <v>1.027244284003641</v>
       </c>
       <c r="L23">
-        <v>1.010587938228185</v>
+        <v>1.012929436279999</v>
       </c>
       <c r="N23">
-        <v>1.009369605445962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010189837853467</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030393437003073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,66 +1335,78 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.990522417712748</v>
+        <v>0.9928587169656252</v>
       </c>
       <c r="D24">
-        <v>1.011010833749019</v>
+        <v>1.015342764247938</v>
       </c>
       <c r="E24">
-        <v>0.9993972292041532</v>
+        <v>1.001386970894558</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040968697754347</v>
+        <v>1.040745328043906</v>
       </c>
       <c r="J24">
-        <v>1.018390244613672</v>
+        <v>1.020634463323221</v>
       </c>
       <c r="K24">
-        <v>1.024847307135622</v>
+        <v>1.029105696525941</v>
       </c>
       <c r="L24">
-        <v>1.013434938448357</v>
+        <v>1.015389773470927</v>
       </c>
       <c r="N24">
-        <v>1.010228225112924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010911219987078</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031702017621446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9966703403787679</v>
+        <v>0.9984972898695352</v>
       </c>
       <c r="D25">
-        <v>1.015255010225064</v>
+        <v>1.018882797934781</v>
       </c>
       <c r="E25">
-        <v>1.004094825918984</v>
+        <v>1.005654163359087</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042663453491398</v>
+        <v>1.041837906336793</v>
       </c>
       <c r="J25">
-        <v>1.021310282800097</v>
+        <v>1.023075332251415</v>
       </c>
       <c r="K25">
-        <v>1.027621039039071</v>
+        <v>1.031194887747193</v>
       </c>
       <c r="L25">
-        <v>1.016629905832827</v>
+        <v>1.018165335266326</v>
       </c>
       <c r="N25">
-        <v>1.011187825433235</v>
+        <v>1.011721963382824</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033176323182449</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,40 +439,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002845661109816</v>
+        <v>1.002888524361975</v>
       </c>
       <c r="D2">
-        <v>1.021610587078818</v>
+        <v>1.021333861809748</v>
       </c>
       <c r="E2">
-        <v>1.008965102664857</v>
+        <v>1.009003209847413</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042643369515094</v>
+        <v>1.042564748912807</v>
       </c>
       <c r="J2">
-        <v>1.024941590803464</v>
+        <v>1.024983182076218</v>
       </c>
       <c r="K2">
-        <v>1.032776843176386</v>
+        <v>1.032503772455276</v>
       </c>
       <c r="L2">
-        <v>1.020300936482983</v>
+        <v>1.020338524606917</v>
       </c>
       <c r="N2">
-        <v>1.012340543898715</v>
+        <v>1.013913550525244</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034246285804805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034062023337945</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020784209425148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,40 +489,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005944067331699</v>
+        <v>1.005897897101579</v>
       </c>
       <c r="D3">
-        <v>1.023572653562669</v>
+        <v>1.023172561931449</v>
       </c>
       <c r="E3">
-        <v>1.011338323847849</v>
+        <v>1.011299257800022</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043207719264188</v>
+        <v>1.043069865927341</v>
       </c>
       <c r="J3">
-        <v>1.026273992307919</v>
+        <v>1.026229060667542</v>
       </c>
       <c r="K3">
-        <v>1.033912546913233</v>
+        <v>1.033517288188941</v>
       </c>
       <c r="L3">
-        <v>1.021828155460988</v>
+        <v>1.021789575426068</v>
       </c>
       <c r="N3">
-        <v>1.012783070248174</v>
+        <v>1.014242621268544</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035046653672345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034775718255626</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020954904852187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,40 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007918023684863</v>
+        <v>1.007815606267148</v>
       </c>
       <c r="D4">
-        <v>1.02482670691627</v>
+        <v>1.024348303702109</v>
       </c>
       <c r="E4">
-        <v>1.012855986964398</v>
+        <v>1.012768088110884</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043560027053661</v>
+        <v>1.043384530413042</v>
       </c>
       <c r="J4">
-        <v>1.027121331606549</v>
+        <v>1.027021479163054</v>
       </c>
       <c r="K4">
-        <v>1.03463445196783</v>
+        <v>1.034161485824999</v>
       </c>
       <c r="L4">
-        <v>1.022801688714883</v>
+        <v>1.022714817771268</v>
       </c>
       <c r="N4">
-        <v>1.013064542377111</v>
+        <v>1.014451975295662</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035558008274588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035232209676189</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021061097006194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,40 +589,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008743001838728</v>
+        <v>1.008617195818813</v>
       </c>
       <c r="D5">
-        <v>1.025353866247952</v>
+        <v>1.024842848424128</v>
       </c>
       <c r="E5">
-        <v>1.013491884739442</v>
+        <v>1.013383663429993</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043706821466955</v>
+        <v>1.043515631424195</v>
       </c>
       <c r="J5">
-        <v>1.027476361620783</v>
+        <v>1.027353613833404</v>
       </c>
       <c r="K5">
-        <v>1.034938449457805</v>
+        <v>1.034433087600144</v>
       </c>
       <c r="L5">
-        <v>1.023209569758779</v>
+        <v>1.02310258047545</v>
       </c>
       <c r="N5">
-        <v>1.013182643146952</v>
+        <v>1.014539861011908</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03578017339157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035432179238739</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02110573821387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,40 +639,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008883955945498</v>
+        <v>1.008754172377754</v>
       </c>
       <c r="D6">
-        <v>1.025446548247093</v>
+        <v>1.02493001943622</v>
       </c>
       <c r="E6">
-        <v>1.013600938515012</v>
+        <v>1.013489260049504</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043733398785171</v>
+        <v>1.043539548973415</v>
       </c>
       <c r="J6">
-        <v>1.027538556574269</v>
+        <v>1.027411911991922</v>
       </c>
       <c r="K6">
-        <v>1.034993647757169</v>
+        <v>1.034482810194907</v>
       </c>
       <c r="L6">
-        <v>1.023280353705011</v>
+        <v>1.023169940829909</v>
       </c>
       <c r="N6">
-        <v>1.013203520697329</v>
+        <v>1.014555438516225</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035827997874844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035477000447533</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021114399429591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,40 +689,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007936730888053</v>
+        <v>1.007840311673924</v>
       </c>
       <c r="D7">
-        <v>1.02484549336495</v>
+        <v>1.024371076236765</v>
       </c>
       <c r="E7">
-        <v>1.012871279646988</v>
+        <v>1.01278866502477</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043567645395365</v>
+        <v>1.04339482468007</v>
       </c>
       <c r="J7">
-        <v>1.02713355315188</v>
+        <v>1.027039547668652</v>
       </c>
       <c r="K7">
-        <v>1.034650121032409</v>
+        <v>1.034181093603537</v>
       </c>
       <c r="L7">
-        <v>1.022813852430627</v>
+        <v>1.022732203557311</v>
       </c>
       <c r="N7">
-        <v>1.013069116965934</v>
+        <v>1.014482865532982</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035589313294302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035268297828806</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021066256324096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,40 +739,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003908766503074</v>
+        <v>1.003940962369632</v>
       </c>
       <c r="D8">
-        <v>1.022291356003986</v>
+        <v>1.021986485376126</v>
       </c>
       <c r="E8">
-        <v>1.009779314426756</v>
+        <v>1.009808456192795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042843727321151</v>
+        <v>1.042753968970486</v>
       </c>
       <c r="J8">
-        <v>1.025404188166944</v>
+        <v>1.025435460071234</v>
       </c>
       <c r="K8">
-        <v>1.033177610755478</v>
+        <v>1.032876649119539</v>
       </c>
       <c r="L8">
-        <v>1.020828428260292</v>
+        <v>1.020857184830659</v>
       </c>
       <c r="N8">
-        <v>1.012494834248263</v>
+        <v>1.014111605624622</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03455270138234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034350984213863</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020850757260026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,40 +789,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9965534934278805</v>
+        <v>0.9968028763991296</v>
       </c>
       <c r="D9">
-        <v>1.017649778393307</v>
+        <v>1.017641369136121</v>
       </c>
       <c r="E9">
-        <v>1.004177980911952</v>
+        <v>1.004394859423729</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04145917628474</v>
+        <v>1.041511845037652</v>
       </c>
       <c r="J9">
-        <v>1.022228546517716</v>
+        <v>1.022469040695869</v>
       </c>
       <c r="K9">
-        <v>1.030462846481931</v>
+        <v>1.030454567680362</v>
       </c>
       <c r="L9">
-        <v>1.017203635036173</v>
+        <v>1.017417033265335</v>
       </c>
       <c r="N9">
-        <v>1.011439825134393</v>
+        <v>1.013337284400229</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032629975502428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032634922420426</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020428619363218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,40 +839,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9914750035781238</v>
+        <v>0.9919065954391741</v>
       </c>
       <c r="D10">
-        <v>1.014471678302285</v>
+        <v>1.01469031939593</v>
       </c>
       <c r="E10">
-        <v>1.000343786087798</v>
+        <v>1.000717946950105</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04046843654041</v>
+        <v>1.040633336693999</v>
       </c>
       <c r="J10">
-        <v>1.020030986029122</v>
+        <v>1.020445044363297</v>
       </c>
       <c r="K10">
-        <v>1.028584467354861</v>
+        <v>1.028799306331459</v>
       </c>
       <c r="L10">
-        <v>1.014706836143699</v>
+        <v>1.01507425073102</v>
       </c>
       <c r="N10">
-        <v>1.010710287275536</v>
+        <v>1.012919107339058</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031318739343008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031483120931466</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020130939107852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,40 +889,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9892403316519348</v>
+        <v>0.9897997790406429</v>
       </c>
       <c r="D11">
-        <v>1.013087531222318</v>
+        <v>1.013439870420064</v>
       </c>
       <c r="E11">
-        <v>0.9986660845558027</v>
+        <v>0.9991511622060485</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040029169130926</v>
+        <v>1.040265100710954</v>
       </c>
       <c r="J11">
-        <v>1.0190676785532</v>
+        <v>1.019603143157917</v>
       </c>
       <c r="K11">
-        <v>1.027766785472203</v>
+        <v>1.0281127045279</v>
       </c>
       <c r="L11">
-        <v>1.013613200487205</v>
+        <v>1.014089104137821</v>
       </c>
       <c r="N11">
-        <v>1.010391325656256</v>
+        <v>1.012924374404538</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030773624401439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031033901950872</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02000964734226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,40 +939,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9883980836129264</v>
+        <v>0.9890101676808096</v>
       </c>
       <c r="D12">
-        <v>1.012562290322541</v>
+        <v>1.012968126086768</v>
       </c>
       <c r="E12">
-        <v>0.9980343248059257</v>
+        <v>0.9985651023085909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039859671854697</v>
+        <v>1.040124398530849</v>
       </c>
       <c r="J12">
-        <v>1.018701705019628</v>
+        <v>1.019287030992747</v>
       </c>
       <c r="K12">
-        <v>1.027452710242218</v>
+        <v>1.027851024303964</v>
       </c>
       <c r="L12">
-        <v>1.013199281193833</v>
+        <v>1.013719844422124</v>
       </c>
       <c r="N12">
-        <v>1.010269755768444</v>
+        <v>1.012942044486559</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030551560657921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030848887612035</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019962534315715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,40 +989,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9885780509375831</v>
+        <v>0.9891786863183286</v>
       </c>
       <c r="D13">
-        <v>1.012673595235656</v>
+        <v>1.013067843634721</v>
       </c>
       <c r="E13">
-        <v>0.9981691192350737</v>
+        <v>0.9986899580334492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039895413740981</v>
+        <v>1.040153895825037</v>
       </c>
       <c r="J13">
-        <v>1.018779378517534</v>
+        <v>1.019353865815313</v>
       </c>
       <c r="K13">
-        <v>1.027518718854391</v>
+        <v>1.027905686754468</v>
       </c>
       <c r="L13">
-        <v>1.013287328165383</v>
+        <v>1.013798181056685</v>
       </c>
       <c r="N13">
-        <v>1.010295476710246</v>
+        <v>1.012937264102882</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030595723842901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03088478550737</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019972222553469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,40 +1039,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.989170420365614</v>
+        <v>0.9897341439033721</v>
       </c>
       <c r="D14">
-        <v>1.013043536195088</v>
+        <v>1.013400244107375</v>
       </c>
       <c r="E14">
-        <v>0.9986135595991068</v>
+        <v>0.9991023502408481</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040014897864928</v>
+        <v>1.040253177123531</v>
       </c>
       <c r="J14">
-        <v>1.019037076003188</v>
+        <v>1.01957659407514</v>
       </c>
       <c r="K14">
-        <v>1.027740244465329</v>
+        <v>1.028090443432584</v>
       </c>
       <c r="L14">
-        <v>1.013578672859327</v>
+        <v>1.01405820591224</v>
       </c>
       <c r="N14">
-        <v>1.010381125611413</v>
+        <v>1.012925386004849</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030753784573658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031016984723419</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020005573763351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,40 +1089,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9895364849965115</v>
+        <v>0.9900779974279559</v>
       </c>
       <c r="D15">
-        <v>1.013274032430058</v>
+        <v>1.013607994861537</v>
       </c>
       <c r="E15">
-        <v>0.9988886534482059</v>
+        <v>0.9993581592004418</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040089630129141</v>
+        <v>1.040315698953884</v>
       </c>
       <c r="J15">
-        <v>1.019197363993517</v>
+        <v>1.019715822489335</v>
       </c>
       <c r="K15">
-        <v>1.027879325792216</v>
+        <v>1.028207239397478</v>
       </c>
       <c r="L15">
-        <v>1.013759514261931</v>
+        <v>1.014220194873399</v>
       </c>
       <c r="N15">
-        <v>1.010434559193848</v>
+        <v>1.012920791926302</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030858027559457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031106039886585</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020026959393675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,40 +1139,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9916398534140269</v>
+        <v>0.9920630596759276</v>
       </c>
       <c r="D16">
-        <v>1.014589223074229</v>
+        <v>1.014798972511293</v>
       </c>
       <c r="E16">
-        <v>1.000470096062728</v>
+        <v>1.000836963253974</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040509883145976</v>
+        <v>1.040670037907752</v>
       </c>
       <c r="J16">
-        <v>1.020111274922294</v>
+        <v>1.020517351377672</v>
       </c>
       <c r="K16">
-        <v>1.028664048553014</v>
+        <v>1.028870162225135</v>
       </c>
       <c r="L16">
-        <v>1.014794215160116</v>
+        <v>1.015154489132593</v>
       </c>
       <c r="N16">
-        <v>1.010738240875129</v>
+        <v>1.012926793476613</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031416049459875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031578243433195</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020146272329318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,40 +1189,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9929469041303247</v>
+        <v>0.9933060592836382</v>
       </c>
       <c r="D17">
-        <v>1.015408127989825</v>
+        <v>1.015547392280703</v>
       </c>
       <c r="E17">
-        <v>1.001455008141171</v>
+        <v>1.001766366015888</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040768841853565</v>
+        <v>1.040892330368644</v>
       </c>
       <c r="J17">
-        <v>1.02067884686415</v>
+        <v>1.02102392859643</v>
       </c>
       <c r="K17">
-        <v>1.029151284863283</v>
+        <v>1.029288202414225</v>
       </c>
       <c r="L17">
-        <v>1.015437573800142</v>
+        <v>1.015743495158791</v>
       </c>
       <c r="N17">
-        <v>1.010926854667736</v>
+        <v>1.012966911047775</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031763152575101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031876668580009</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020221475373865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,40 +1239,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9936995267496449</v>
+        <v>0.9940254720376298</v>
       </c>
       <c r="D18">
-        <v>1.015875537335693</v>
+        <v>1.01597673388126</v>
       </c>
       <c r="E18">
-        <v>1.002022198271843</v>
+        <v>1.00230480750052</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040914315276181</v>
+        <v>1.041018342646057</v>
       </c>
       <c r="J18">
-        <v>1.021002689806316</v>
+        <v>1.021316105585817</v>
       </c>
       <c r="K18">
-        <v>1.029425751726089</v>
+        <v>1.029525271283212</v>
       </c>
       <c r="L18">
-        <v>1.015806116996748</v>
+        <v>1.016083875208365</v>
       </c>
       <c r="N18">
-        <v>1.011034067894051</v>
+        <v>1.013003046554033</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031945505219733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032031443347083</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020263279162951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,40 +1289,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9939595901570911</v>
+        <v>0.9942747462967023</v>
       </c>
       <c r="D19">
-        <v>1.016040798254864</v>
+        <v>1.016129379872684</v>
       </c>
       <c r="E19">
-        <v>1.002218870763105</v>
+        <v>1.002492141723786</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04096665940688</v>
+        <v>1.041064279962829</v>
       </c>
       <c r="J19">
-        <v>1.021116780907637</v>
+        <v>1.021419901953704</v>
       </c>
       <c r="K19">
-        <v>1.029525183881157</v>
+        <v>1.029612305992901</v>
       </c>
       <c r="L19">
-        <v>1.015935074775888</v>
+        <v>1.016203682490578</v>
       </c>
       <c r="N19">
-        <v>1.011072162827782</v>
+        <v>1.013019164793438</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032022239089627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032100033358159</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020279305909781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,40 +1339,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9928067039311933</v>
+        <v>0.9931723434031585</v>
       </c>
       <c r="D20">
-        <v>1.015319863820228</v>
+        <v>1.015466410729651</v>
       </c>
       <c r="E20">
-        <v>1.001349225463263</v>
+        <v>1.001666200587932</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040740926912039</v>
+        <v>1.040868173023634</v>
       </c>
       <c r="J20">
-        <v>1.020617759183784</v>
+        <v>1.020969020788145</v>
       </c>
       <c r="K20">
-        <v>1.029098576677374</v>
+        <v>1.029242646560848</v>
       </c>
       <c r="L20">
-        <v>1.015368391784481</v>
+        <v>1.015679815003747</v>
       </c>
       <c r="N20">
-        <v>1.010906521487779</v>
+        <v>1.012961015698228</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031724541916115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031842985640562</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020213214235941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1212,40 +1389,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.989001917925609</v>
+        <v>0.9895922251456953</v>
       </c>
       <c r="D21">
-        <v>1.012943230695864</v>
+        <v>1.013322112231432</v>
       </c>
       <c r="E21">
-        <v>0.9984878809009744</v>
+        <v>0.9989999328944329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039983919369233</v>
+        <v>1.040235347833519</v>
       </c>
       <c r="J21">
-        <v>1.018966771467488</v>
+        <v>1.019531629471619</v>
       </c>
       <c r="K21">
-        <v>1.027683469748557</v>
+        <v>1.02805541352475</v>
       </c>
       <c r="L21">
-        <v>1.013497957582574</v>
+        <v>1.014000276655794</v>
       </c>
       <c r="N21">
-        <v>1.010358208054003</v>
+        <v>1.012995009800642</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030727234711792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031007121167332</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020001330405114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,40 +1439,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9865613906268966</v>
+        <v>0.9872946865326037</v>
       </c>
       <c r="D22">
-        <v>1.011418091022678</v>
+        <v>1.01194523301703</v>
       </c>
       <c r="E22">
-        <v>0.9966589122151729</v>
+        <v>0.9972949759712689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039487475853106</v>
+        <v>1.039817967025865</v>
       </c>
       <c r="J22">
-        <v>1.01790296325615</v>
+        <v>1.018602837864008</v>
       </c>
       <c r="K22">
-        <v>1.02676669684197</v>
+        <v>1.02728370941323</v>
       </c>
       <c r="L22">
-        <v>1.012296848546647</v>
+        <v>1.012920211054137</v>
       </c>
       <c r="N22">
-        <v>1.010004393664113</v>
+        <v>1.013004443552635</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030065446040619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030446602775061</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019860062494479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,40 +1489,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9878522864974081</v>
+        <v>0.9884994592756063</v>
       </c>
       <c r="D23">
-        <v>1.012218348164729</v>
+        <v>1.012659506319542</v>
       </c>
       <c r="E23">
-        <v>0.9976246829110123</v>
+        <v>0.9981859435096423</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039747179023508</v>
+        <v>1.040031020840916</v>
       </c>
       <c r="J23">
-        <v>1.018462170449726</v>
+        <v>1.019080696990857</v>
       </c>
       <c r="K23">
-        <v>1.027244284003641</v>
+        <v>1.027677177024271</v>
       </c>
       <c r="L23">
-        <v>1.012929436279999</v>
+        <v>1.013479776124805</v>
       </c>
       <c r="N23">
-        <v>1.010189837853467</v>
+        <v>1.012956089045958</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030393437003073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030714175630807</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019930518655596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,40 +1539,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9928587169656252</v>
+        <v>0.9932218376315514</v>
       </c>
       <c r="D24">
-        <v>1.015342764247938</v>
+        <v>1.015486379541045</v>
       </c>
       <c r="E24">
-        <v>1.001386970894558</v>
+        <v>1.001701776116672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040745328043906</v>
+        <v>1.040871110711617</v>
       </c>
       <c r="J24">
-        <v>1.020634463323221</v>
+        <v>1.020983327323158</v>
       </c>
       <c r="K24">
-        <v>1.029105696525941</v>
+        <v>1.029246887593114</v>
       </c>
       <c r="L24">
-        <v>1.015389773470927</v>
+        <v>1.015699072423091</v>
       </c>
       <c r="N24">
-        <v>1.010911219987078</v>
+        <v>1.012960185707835</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031702017621446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031815754399292</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02021222565962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,37 +1589,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9984972898695352</v>
+        <v>0.9986808666699634</v>
       </c>
       <c r="D25">
-        <v>1.018882797934781</v>
+        <v>1.018790355191542</v>
       </c>
       <c r="E25">
-        <v>1.005654163359087</v>
+        <v>1.00581412789696</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041837906336793</v>
+        <v>1.041849257036483</v>
       </c>
       <c r="J25">
-        <v>1.023075332251415</v>
+        <v>1.023252706612312</v>
       </c>
       <c r="K25">
-        <v>1.031194887747193</v>
+        <v>1.031103813408341</v>
       </c>
       <c r="L25">
-        <v>1.018165335266326</v>
+        <v>1.018322852550382</v>
       </c>
       <c r="N25">
-        <v>1.011721963382824</v>
+        <v>1.01351230139525</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033176323182449</v>
+        <v>1.033125531626272</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020545228266665</v>
       </c>
     </row>
   </sheetData>
